--- a/content/drafts/entitats/Arees_basiques_salut.xlsx
+++ b/content/drafts/entitats/Arees_basiques_salut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/78.Arees_basiques_salut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{331CFDA2-C6C2-4D2D-B336-766B62877E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0ECF74-802A-40E6-9B21-72D0E8D41BB1}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{331CFDA2-C6C2-4D2D-B336-766B62877E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAE1B81-29A5-4D10-83F7-E8A991FD1C6F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="759">
   <si>
     <t>Codi</t>
   </si>
@@ -1185,6 +1185,1131 @@
   </si>
   <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>999</t>
   </si>
 </sst>
 </file>
@@ -1327,15 +2452,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,15 +2881,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1772,7 +2897,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1781,13 +2906,13 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
+      <c r="A4" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1795,13 +2920,13 @@
       <c r="C4" s="3">
         <v>6156</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2</v>
+      <c r="A5" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -1809,13 +2934,13 @@
       <c r="C5" s="3">
         <v>6156</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3</v>
+      <c r="A6" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -1823,13 +2948,13 @@
       <c r="C6" s="3">
         <v>6156</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>4</v>
+      <c r="A7" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1837,13 +2962,13 @@
       <c r="C7" s="3">
         <v>6360</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5</v>
+      <c r="A8" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -1851,13 +2976,13 @@
       <c r="C8" s="3">
         <v>6462</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>7</v>
+      <c r="A9" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -1865,13 +2990,13 @@
       <c r="C9" s="3">
         <v>7107</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>8</v>
+      <c r="A10" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -1879,13 +3004,13 @@
       <c r="C10" s="3">
         <v>6462</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>9</v>
+      <c r="A11" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -1893,13 +3018,13 @@
       <c r="C11" s="3">
         <v>7867</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>10</v>
+      <c r="A12" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
@@ -1907,13 +3032,13 @@
       <c r="C12" s="3">
         <v>7867</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>11</v>
+      <c r="A13" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
@@ -1921,13 +3046,13 @@
       <c r="C13" s="3">
         <v>6763</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>12</v>
+      <c r="A14" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
@@ -1935,13 +3060,13 @@
       <c r="C14" s="3">
         <v>6156</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>13</v>
+      <c r="A15" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -1949,13 +3074,13 @@
       <c r="C15" s="3">
         <v>6258</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>14</v>
+      <c r="A16" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1963,13 +3088,13 @@
       <c r="C16" s="3">
         <v>6156</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>15</v>
+      <c r="A17" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -1977,13 +3102,13 @@
       <c r="C17" s="3">
         <v>6462</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>16</v>
+      <c r="A18" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -1991,13 +3116,13 @@
       <c r="C18" s="3">
         <v>7846</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>17</v>
+      <c r="A19" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -2005,13 +3130,13 @@
       <c r="C19" s="3">
         <v>7846</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>18</v>
+      <c r="A20" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -2019,13 +3144,13 @@
       <c r="C20" s="3">
         <v>7846</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>19</v>
+      <c r="A21" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
@@ -2033,13 +3158,13 @@
       <c r="C21" s="3">
         <v>7846</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>20</v>
+      <c r="A22" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -2047,13 +3172,13 @@
       <c r="C22" s="3">
         <v>7846</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>21</v>
+      <c r="A23" s="11" t="s">
+        <v>403</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>28</v>
@@ -2061,13 +3186,13 @@
       <c r="C23" s="3">
         <v>7851</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>22</v>
+      <c r="A24" s="11" t="s">
+        <v>404</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>29</v>
@@ -2075,13 +3200,13 @@
       <c r="C24" s="3">
         <v>7851</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>23</v>
+      <c r="A25" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -2089,13 +3214,13 @@
       <c r="C25" s="3">
         <v>7851</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>24</v>
+      <c r="A26" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
@@ -2103,13 +3228,13 @@
       <c r="C26" s="3">
         <v>7851</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>25</v>
+      <c r="A27" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
@@ -2117,13 +3242,13 @@
       <c r="C27" s="3">
         <v>7851</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>27</v>
+      <c r="A28" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
@@ -2131,13 +3256,13 @@
       <c r="C28" s="3">
         <v>7851</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>28</v>
+      <c r="A29" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -2145,13 +3270,13 @@
       <c r="C29" s="3">
         <v>7851</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>29</v>
+      <c r="A30" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -2159,13 +3284,13 @@
       <c r="C30" s="3">
         <v>7851</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>30</v>
+      <c r="A31" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -2173,13 +3298,13 @@
       <c r="C31" s="3">
         <v>7851</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>31</v>
+      <c r="A32" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>37</v>
@@ -2187,13 +3312,13 @@
       <c r="C32" s="3">
         <v>7851</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>32</v>
+      <c r="A33" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>38</v>
@@ -2201,13 +3326,13 @@
       <c r="C33" s="3">
         <v>7849</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>33</v>
+      <c r="A34" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -2215,13 +3340,13 @@
       <c r="C34" s="3">
         <v>7849</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>34</v>
+      <c r="A35" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>40</v>
@@ -2229,13 +3354,13 @@
       <c r="C35" s="3">
         <v>7849</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>35</v>
+      <c r="A36" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>41</v>
@@ -2243,13 +3368,13 @@
       <c r="C36" s="3">
         <v>7849</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>36</v>
+      <c r="A37" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>42</v>
@@ -2257,13 +3382,13 @@
       <c r="C37" s="3">
         <v>7849</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>38</v>
+      <c r="A38" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>43</v>
@@ -2271,13 +3396,13 @@
       <c r="C38" s="3">
         <v>7849</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>39</v>
+      <c r="A39" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>44</v>
@@ -2285,13 +3410,13 @@
       <c r="C39" s="3">
         <v>7848</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>40</v>
+      <c r="A40" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>45</v>
@@ -2299,13 +3424,13 @@
       <c r="C40" s="3">
         <v>7848</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>41</v>
+      <c r="A41" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>46</v>
@@ -2313,13 +3438,13 @@
       <c r="C41" s="3">
         <v>7848</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>42</v>
+      <c r="A42" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>47</v>
@@ -2327,13 +3452,13 @@
       <c r="C42" s="3">
         <v>7850</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>43</v>
+      <c r="A43" s="11" t="s">
+        <v>423</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>48</v>
@@ -2341,13 +3466,13 @@
       <c r="C43" s="3">
         <v>7850</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>44</v>
+      <c r="A44" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>49</v>
@@ -2355,13 +3480,13 @@
       <c r="C44" s="3">
         <v>7850</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>45</v>
+      <c r="A45" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>50</v>
@@ -2369,13 +3494,13 @@
       <c r="C45" s="3">
         <v>7850</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>46</v>
+      <c r="A46" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>51</v>
@@ -2383,13 +3508,13 @@
       <c r="C46" s="3">
         <v>7850</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>47</v>
+      <c r="A47" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>52</v>
@@ -2397,13 +3522,13 @@
       <c r="C47" s="3">
         <v>7852</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>48</v>
+      <c r="A48" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>53</v>
@@ -2411,13 +3536,13 @@
       <c r="C48" s="3">
         <v>7852</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>49</v>
+      <c r="A49" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>54</v>
@@ -2425,13 +3550,13 @@
       <c r="C49" s="3">
         <v>7852</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>50</v>
+      <c r="A50" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>55</v>
@@ -2439,13 +3564,13 @@
       <c r="C50" s="3">
         <v>7852</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>51</v>
+      <c r="A51" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>56</v>
@@ -2453,13 +3578,13 @@
       <c r="C51" s="3">
         <v>7853</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
-        <v>52</v>
+      <c r="A52" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>57</v>
@@ -2467,13 +3592,13 @@
       <c r="C52" s="3">
         <v>7853</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
-        <v>53</v>
+      <c r="A53" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>58</v>
@@ -2481,13 +3606,13 @@
       <c r="C53" s="3">
         <v>7853</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
-        <v>54</v>
+      <c r="A54" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>59</v>
@@ -2495,13 +3620,13 @@
       <c r="C54" s="3">
         <v>7853</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>55</v>
+      <c r="A55" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>60</v>
@@ -2509,13 +3634,13 @@
       <c r="C55" s="3">
         <v>7853</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>56</v>
+      <c r="A56" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>61</v>
@@ -2523,13 +3648,13 @@
       <c r="C56" s="3">
         <v>7853</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
-        <v>59</v>
+      <c r="A57" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>62</v>
@@ -2537,13 +3662,13 @@
       <c r="C57" s="3">
         <v>7854</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
-        <v>62</v>
+      <c r="A58" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>63</v>
@@ -2551,13 +3676,13 @@
       <c r="C58" s="3">
         <v>7854</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
-        <v>63</v>
+      <c r="A59" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
@@ -2565,13 +3690,13 @@
       <c r="C59" s="3">
         <v>7854</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>64</v>
+      <c r="A60" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>65</v>
@@ -2579,13 +3704,13 @@
       <c r="C60" s="3">
         <v>7854</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
-        <v>65</v>
+      <c r="A61" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>66</v>
@@ -2593,13 +3718,13 @@
       <c r="C61" s="3">
         <v>7855</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
-        <v>67</v>
+      <c r="A62" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>67</v>
@@ -2607,13 +3732,13 @@
       <c r="C62" s="3">
         <v>7855</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
-        <v>69</v>
+      <c r="A63" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>68</v>
@@ -2621,13 +3746,13 @@
       <c r="C63" s="3">
         <v>7855</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
-        <v>70</v>
+      <c r="A64" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>69</v>
@@ -2635,13 +3760,13 @@
       <c r="C64" s="3">
         <v>7855</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
-        <v>71</v>
+      <c r="A65" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>70</v>
@@ -2649,13 +3774,13 @@
       <c r="C65" s="3">
         <v>7847</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
-        <v>72</v>
+      <c r="A66" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>71</v>
@@ -2663,13 +3788,13 @@
       <c r="C66" s="3">
         <v>7847</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>73</v>
+      <c r="A67" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>72</v>
@@ -2677,13 +3802,13 @@
       <c r="C67" s="3">
         <v>7847</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
-        <v>74</v>
+      <c r="A68" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>73</v>
@@ -2691,13 +3816,13 @@
       <c r="C68" s="3">
         <v>7847</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
-        <v>75</v>
+      <c r="A69" s="11" t="s">
+        <v>449</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>74</v>
@@ -2705,13 +3830,13 @@
       <c r="C69" s="3">
         <v>7847</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
-        <v>76</v>
+      <c r="A70" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>75</v>
@@ -2719,13 +3844,13 @@
       <c r="C70" s="3">
         <v>7847</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
-        <v>77</v>
+      <c r="A71" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>76</v>
@@ -2733,13 +3858,13 @@
       <c r="C71" s="3">
         <v>7847</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>78</v>
+      <c r="A72" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>77</v>
@@ -2747,13 +3872,13 @@
       <c r="C72" s="3">
         <v>7847</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>79</v>
+      <c r="A73" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -2761,13 +3886,13 @@
       <c r="C73" s="3">
         <v>7847</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>80</v>
+      <c r="A74" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>79</v>
@@ -2775,13 +3900,13 @@
       <c r="C74" s="3">
         <v>6461</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>81</v>
+      <c r="A75" s="11" t="s">
+        <v>455</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>80</v>
@@ -2789,13 +3914,13 @@
       <c r="C75" s="3">
         <v>6156</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>82</v>
+      <c r="A76" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>81</v>
@@ -2803,13 +3928,13 @@
       <c r="C76" s="3">
         <v>6763</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>83</v>
+      <c r="A77" s="11" t="s">
+        <v>457</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>82</v>
@@ -2817,13 +3942,13 @@
       <c r="C77" s="3">
         <v>6461</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>84</v>
+      <c r="A78" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>83</v>
@@ -2831,13 +3956,13 @@
       <c r="C78" s="3">
         <v>6461</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
-        <v>85</v>
+      <c r="A79" s="11" t="s">
+        <v>459</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>84</v>
@@ -2845,13 +3970,13 @@
       <c r="C79" s="3">
         <v>6462</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
-        <v>86</v>
+      <c r="A80" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>85</v>
@@ -2859,13 +3984,13 @@
       <c r="C80" s="3">
         <v>6156</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
-        <v>87</v>
+      <c r="A81" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>86</v>
@@ -2873,13 +3998,13 @@
       <c r="C81" s="3">
         <v>6259</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
-        <v>88</v>
+      <c r="A82" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>87</v>
@@ -2887,13 +4012,13 @@
       <c r="C82" s="3">
         <v>6735</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
-        <v>89</v>
+      <c r="A83" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>88</v>
@@ -2901,13 +4026,13 @@
       <c r="C83" s="3">
         <v>7842</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
-        <v>90</v>
+      <c r="A84" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>89</v>
@@ -2915,13 +4040,13 @@
       <c r="C84" s="3">
         <v>6462</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
-        <v>91</v>
+      <c r="A85" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>90</v>
@@ -2929,13 +4054,13 @@
       <c r="C85" s="3">
         <v>6259</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
-        <v>92</v>
+      <c r="A86" s="11" t="s">
+        <v>466</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>91</v>
@@ -2943,13 +4068,13 @@
       <c r="C86" s="3">
         <v>6461</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
-        <v>93</v>
+      <c r="A87" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>92</v>
@@ -2957,13 +4082,13 @@
       <c r="C87" s="3">
         <v>6462</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
-        <v>95</v>
+      <c r="A88" s="11" t="s">
+        <v>468</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>93</v>
@@ -2971,13 +4096,13 @@
       <c r="C88" s="3">
         <v>7842</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
-        <v>96</v>
+      <c r="A89" s="11" t="s">
+        <v>469</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>94</v>
@@ -2985,13 +4110,13 @@
       <c r="C89" s="3">
         <v>6763</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
-        <v>97</v>
+      <c r="A90" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>95</v>
@@ -2999,13 +4124,13 @@
       <c r="C90" s="3">
         <v>7844</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
-        <v>98</v>
+      <c r="A91" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>96</v>
@@ -3013,13 +4138,13 @@
       <c r="C91" s="3">
         <v>6763</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
-        <v>100</v>
+      <c r="A92" s="11" t="s">
+        <v>472</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>97</v>
@@ -3027,13 +4152,13 @@
       <c r="C92" s="3">
         <v>6462</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
-        <v>101</v>
+      <c r="A93" s="11" t="s">
+        <v>473</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>98</v>
@@ -3041,13 +4166,13 @@
       <c r="C93" s="3">
         <v>6462</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
-        <v>102</v>
+      <c r="A94" s="11" t="s">
+        <v>474</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>99</v>
@@ -3055,13 +4180,13 @@
       <c r="C94" s="3">
         <v>6745</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
-        <v>103</v>
+      <c r="A95" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>100</v>
@@ -3069,13 +4194,13 @@
       <c r="C95" s="3">
         <v>7164</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="8">
-        <v>104</v>
+      <c r="A96" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>101</v>
@@ -3083,13 +4208,13 @@
       <c r="C96" s="3">
         <v>7844</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
-        <v>105</v>
+      <c r="A97" s="11" t="s">
+        <v>477</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>102</v>
@@ -3097,13 +4222,13 @@
       <c r="C97" s="3">
         <v>7844</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
-        <v>106</v>
+      <c r="A98" s="11" t="s">
+        <v>478</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>103</v>
@@ -3111,13 +4236,13 @@
       <c r="C98" s="3">
         <v>6156</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
-        <v>107</v>
+      <c r="A99" s="11" t="s">
+        <v>479</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>104</v>
@@ -3125,13 +4250,13 @@
       <c r="C99" s="3">
         <v>6258</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="8">
-        <v>108</v>
+      <c r="A100" s="11" t="s">
+        <v>480</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>105</v>
@@ -3139,13 +4264,13 @@
       <c r="C100" s="3">
         <v>7866</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
-        <v>109</v>
+      <c r="A101" s="11" t="s">
+        <v>481</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>106</v>
@@ -3153,13 +4278,13 @@
       <c r="C101" s="3">
         <v>7866</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="8">
-        <v>110</v>
+      <c r="A102" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>107</v>
@@ -3167,13 +4292,13 @@
       <c r="C102" s="3">
         <v>7866</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
-        <v>111</v>
+      <c r="A103" s="11" t="s">
+        <v>483</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>108</v>
@@ -3181,13 +4306,13 @@
       <c r="C103" s="3">
         <v>7866</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
-        <v>112</v>
+      <c r="A104" s="11" t="s">
+        <v>484</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>109</v>
@@ -3195,13 +4320,13 @@
       <c r="C104" s="3">
         <v>6259</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
-        <v>113</v>
+      <c r="A105" s="11" t="s">
+        <v>485</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>110</v>
@@ -3209,13 +4334,13 @@
       <c r="C105" s="3">
         <v>6360</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="8">
-        <v>114</v>
+      <c r="A106" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>111</v>
@@ -3223,13 +4348,13 @@
       <c r="C106" s="3">
         <v>6461</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
-        <v>115</v>
+      <c r="A107" s="11" t="s">
+        <v>487</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>112</v>
@@ -3237,13 +4362,13 @@
       <c r="C107" s="3">
         <v>7831</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="8">
-        <v>116</v>
+      <c r="A108" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>113</v>
@@ -3251,13 +4376,13 @@
       <c r="C108" s="3">
         <v>7866</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
-        <v>117</v>
+      <c r="A109" s="11" t="s">
+        <v>489</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>114</v>
@@ -3265,13 +4390,13 @@
       <c r="C109" s="3">
         <v>7866</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="8">
-        <v>118</v>
+      <c r="A110" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>115</v>
@@ -3279,13 +4404,13 @@
       <c r="C110" s="3">
         <v>6259</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
-        <v>119</v>
+      <c r="A111" s="11" t="s">
+        <v>491</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>116</v>
@@ -3293,13 +4418,13 @@
       <c r="C111" s="3">
         <v>6461</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="8">
-        <v>120</v>
+      <c r="A112" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>117</v>
@@ -3307,13 +4432,13 @@
       <c r="C112" s="3">
         <v>6360</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="8">
-        <v>121</v>
+      <c r="A113" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>118</v>
@@ -3321,13 +4446,13 @@
       <c r="C113" s="3">
         <v>7842</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="8">
-        <v>122</v>
+      <c r="A114" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>119</v>
@@ -3335,13 +4460,13 @@
       <c r="C114" s="3">
         <v>7866</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="8">
-        <v>123</v>
+      <c r="A115" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>120</v>
@@ -3349,13 +4474,13 @@
       <c r="C115" s="3">
         <v>7866</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="8">
-        <v>124</v>
+      <c r="A116" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>121</v>
@@ -3363,13 +4488,13 @@
       <c r="C116" s="3">
         <v>6462</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="8">
-        <v>125</v>
+      <c r="A117" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>122</v>
@@ -3377,13 +4502,13 @@
       <c r="C117" s="3">
         <v>6462</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="8">
-        <v>126</v>
+      <c r="A118" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>123</v>
@@ -3391,13 +4516,13 @@
       <c r="C118" s="3">
         <v>6462</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="8">
-        <v>127</v>
+      <c r="A119" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>124</v>
@@ -3405,13 +4530,13 @@
       <c r="C119" s="3">
         <v>6462</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="8">
-        <v>128</v>
+      <c r="A120" s="11" t="s">
+        <v>500</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>125</v>
@@ -3419,13 +4544,13 @@
       <c r="C120" s="3">
         <v>6763</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="8">
-        <v>129</v>
+      <c r="A121" s="11" t="s">
+        <v>501</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>126</v>
@@ -3433,13 +4558,13 @@
       <c r="C121" s="3">
         <v>6156</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="8">
-        <v>130</v>
+      <c r="A122" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>127</v>
@@ -3447,13 +4572,13 @@
       <c r="C122" s="3">
         <v>6763</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="8">
-        <v>131</v>
+      <c r="A123" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>128</v>
@@ -3461,13 +4586,13 @@
       <c r="C123" s="3">
         <v>6735</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="8">
-        <v>133</v>
+      <c r="A124" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>129</v>
@@ -3475,13 +4600,13 @@
       <c r="C124" s="3">
         <v>6461</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="8">
-        <v>134</v>
+      <c r="A125" s="11" t="s">
+        <v>505</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>130</v>
@@ -3489,13 +4614,13 @@
       <c r="C125" s="3">
         <v>6461</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="8">
-        <v>135</v>
+      <c r="A126" s="11" t="s">
+        <v>506</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>131</v>
@@ -3503,13 +4628,13 @@
       <c r="C126" s="3">
         <v>6156</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="8">
-        <v>136</v>
+      <c r="A127" s="11" t="s">
+        <v>507</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>132</v>
@@ -3517,13 +4642,13 @@
       <c r="C127" s="3">
         <v>6156</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="8">
-        <v>137</v>
+      <c r="A128" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>133</v>
@@ -3531,13 +4656,13 @@
       <c r="C128" s="3">
         <v>6156</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="8">
-        <v>138</v>
+      <c r="A129" s="11" t="s">
+        <v>509</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>134</v>
@@ -3545,13 +4670,13 @@
       <c r="C129" s="3">
         <v>6156</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="8">
-        <v>139</v>
+      <c r="A130" s="11" t="s">
+        <v>510</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>135</v>
@@ -3559,13 +4684,13 @@
       <c r="C130" s="3">
         <v>6156</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
-        <v>140</v>
+      <c r="A131" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>136</v>
@@ -3573,13 +4698,13 @@
       <c r="C131" s="3">
         <v>6156</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="8">
-        <v>141</v>
+      <c r="A132" s="11" t="s">
+        <v>512</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>137</v>
@@ -3587,13 +4712,13 @@
       <c r="C132" s="3">
         <v>6156</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="8">
-        <v>142</v>
+      <c r="A133" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>138</v>
@@ -3601,13 +4726,13 @@
       <c r="C133" s="3">
         <v>6462</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="8">
-        <v>143</v>
+      <c r="A134" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>139</v>
@@ -3615,13 +4740,13 @@
       <c r="C134" s="3">
         <v>6462</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="8">
-        <v>144</v>
+      <c r="A135" s="11" t="s">
+        <v>515</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>140</v>
@@ -3629,13 +4754,13 @@
       <c r="C135" s="3">
         <v>6745</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="8">
-        <v>145</v>
+      <c r="A136" s="11" t="s">
+        <v>516</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>141</v>
@@ -3643,13 +4768,13 @@
       <c r="C136" s="3">
         <v>6763</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="8">
-        <v>146</v>
+      <c r="A137" s="11" t="s">
+        <v>517</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>142</v>
@@ -3657,13 +4782,13 @@
       <c r="C137" s="3">
         <v>6763</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="8">
-        <v>147</v>
+      <c r="A138" s="11" t="s">
+        <v>518</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>143</v>
@@ -3671,13 +4796,13 @@
       <c r="C138" s="3">
         <v>6763</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="8">
-        <v>148</v>
+      <c r="A139" s="11" t="s">
+        <v>519</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>144</v>
@@ -3685,13 +4810,13 @@
       <c r="C139" s="3">
         <v>6763</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="8">
-        <v>149</v>
+      <c r="A140" s="11" t="s">
+        <v>520</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>145</v>
@@ -3699,13 +4824,13 @@
       <c r="C140" s="3">
         <v>7831</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="8">
-        <v>150</v>
+      <c r="A141" s="11" t="s">
+        <v>521</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>146</v>
@@ -3713,13 +4838,13 @@
       <c r="C141" s="3">
         <v>7842</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="8">
-        <v>152</v>
+      <c r="A142" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>147</v>
@@ -3727,13 +4852,13 @@
       <c r="C142" s="3">
         <v>7867</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="8">
-        <v>153</v>
+      <c r="A143" s="11" t="s">
+        <v>523</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>148</v>
@@ -3741,13 +4866,13 @@
       <c r="C143" s="3">
         <v>7867</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="8">
-        <v>154</v>
+      <c r="A144" s="11" t="s">
+        <v>524</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>149</v>
@@ -3755,13 +4880,13 @@
       <c r="C144" s="3">
         <v>7867</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="8">
-        <v>155</v>
+      <c r="A145" s="11" t="s">
+        <v>525</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>150</v>
@@ -3769,13 +4894,13 @@
       <c r="C145" s="3">
         <v>7867</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="8">
-        <v>156</v>
+      <c r="A146" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>151</v>
@@ -3783,13 +4908,13 @@
       <c r="C146" s="3">
         <v>7867</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="8">
-        <v>157</v>
+      <c r="A147" s="11" t="s">
+        <v>527</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>152</v>
@@ -3797,13 +4922,13 @@
       <c r="C147" s="3">
         <v>7867</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="8">
-        <v>158</v>
+      <c r="A148" s="11" t="s">
+        <v>528</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>153</v>
@@ -3811,13 +4936,13 @@
       <c r="C148" s="3">
         <v>7867</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="8">
-        <v>159</v>
+      <c r="A149" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>154</v>
@@ -3825,13 +4950,13 @@
       <c r="C149" s="3">
         <v>6763</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="8">
-        <v>160</v>
+      <c r="A150" s="11" t="s">
+        <v>530</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>155</v>
@@ -3839,13 +4964,13 @@
       <c r="C150" s="3">
         <v>7866</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="8">
-        <v>161</v>
+      <c r="A151" s="11" t="s">
+        <v>531</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>156</v>
@@ -3853,13 +4978,13 @@
       <c r="C151" s="3">
         <v>6156</v>
       </c>
-      <c r="D151" s="10">
+      <c r="D151" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="8">
-        <v>162</v>
+      <c r="A152" s="11" t="s">
+        <v>532</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>157</v>
@@ -3867,13 +4992,13 @@
       <c r="C152" s="3">
         <v>6257</v>
       </c>
-      <c r="D152" s="10">
+      <c r="D152" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="8">
-        <v>163</v>
+      <c r="A153" s="11" t="s">
+        <v>533</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>158</v>
@@ -3881,13 +5006,13 @@
       <c r="C153" s="3">
         <v>6259</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="8">
-        <v>164</v>
+      <c r="A154" s="11" t="s">
+        <v>534</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>159</v>
@@ -3895,13 +5020,13 @@
       <c r="C154" s="3">
         <v>7842</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="8">
-        <v>165</v>
+      <c r="A155" s="11" t="s">
+        <v>535</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>160</v>
@@ -3909,13 +5034,13 @@
       <c r="C155" s="3">
         <v>6360</v>
       </c>
-      <c r="D155" s="10">
+      <c r="D155" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="8">
-        <v>166</v>
+      <c r="A156" s="11" t="s">
+        <v>536</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>161</v>
@@ -3923,13 +5048,13 @@
       <c r="C156" s="3">
         <v>6258</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="8">
-        <v>167</v>
+      <c r="A157" s="11" t="s">
+        <v>537</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>162</v>
@@ -3937,13 +5062,13 @@
       <c r="C157" s="3">
         <v>6763</v>
       </c>
-      <c r="D157" s="10">
+      <c r="D157" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="8">
-        <v>168</v>
+      <c r="A158" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>163</v>
@@ -3951,13 +5076,13 @@
       <c r="C158" s="3">
         <v>7831</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="8">
-        <v>169</v>
+      <c r="A159" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>164</v>
@@ -3965,13 +5090,13 @@
       <c r="C159" s="3">
         <v>7164</v>
       </c>
-      <c r="D159" s="10">
+      <c r="D159" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="8">
-        <v>171</v>
+      <c r="A160" s="11" t="s">
+        <v>540</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>165</v>
@@ -3979,13 +5104,13 @@
       <c r="C160" s="3">
         <v>6461</v>
       </c>
-      <c r="D160" s="10">
+      <c r="D160" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="8">
-        <v>172</v>
+      <c r="A161" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>166</v>
@@ -3993,13 +5118,13 @@
       <c r="C161" s="3">
         <v>6461</v>
       </c>
-      <c r="D161" s="10">
+      <c r="D161" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="8">
-        <v>173</v>
+      <c r="A162" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>167</v>
@@ -4007,13 +5132,13 @@
       <c r="C162" s="3">
         <v>6461</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="8">
-        <v>174</v>
+      <c r="A163" s="11" t="s">
+        <v>543</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>168</v>
@@ -4021,13 +5146,13 @@
       <c r="C163" s="3">
         <v>7164</v>
       </c>
-      <c r="D163" s="10">
+      <c r="D163" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="8">
-        <v>175</v>
+      <c r="A164" s="11" t="s">
+        <v>544</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>169</v>
@@ -4035,13 +5160,13 @@
       <c r="C164" s="3">
         <v>7842</v>
       </c>
-      <c r="D164" s="10">
+      <c r="D164" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="8">
-        <v>176</v>
+      <c r="A165" s="11" t="s">
+        <v>545</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>170</v>
@@ -4049,13 +5174,13 @@
       <c r="C165" s="3">
         <v>7865</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="8">
-        <v>177</v>
+      <c r="A166" s="11" t="s">
+        <v>546</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>171</v>
@@ -4063,13 +5188,13 @@
       <c r="C166" s="3">
         <v>6461</v>
       </c>
-      <c r="D166" s="10">
+      <c r="D166" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="8">
-        <v>178</v>
+      <c r="A167" s="11" t="s">
+        <v>547</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>172</v>
@@ -4077,13 +5202,13 @@
       <c r="C167" s="3">
         <v>6360</v>
       </c>
-      <c r="D167" s="10">
+      <c r="D167" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="8">
-        <v>179</v>
+      <c r="A168" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>173</v>
@@ -4091,13 +5216,13 @@
       <c r="C168" s="3">
         <v>7164</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="8">
-        <v>180</v>
+      <c r="A169" s="11" t="s">
+        <v>549</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>174</v>
@@ -4105,13 +5230,13 @@
       <c r="C169" s="3">
         <v>7164</v>
       </c>
-      <c r="D169" s="10">
+      <c r="D169" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="8">
-        <v>181</v>
+      <c r="A170" s="11" t="s">
+        <v>550</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>175</v>
@@ -4119,13 +5244,13 @@
       <c r="C170" s="3">
         <v>6156</v>
       </c>
-      <c r="D170" s="10">
+      <c r="D170" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="8">
-        <v>182</v>
+      <c r="A171" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>176</v>
@@ -4133,13 +5258,13 @@
       <c r="C171" s="3">
         <v>7866</v>
       </c>
-      <c r="D171" s="10">
+      <c r="D171" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="8">
-        <v>183</v>
+      <c r="A172" s="11" t="s">
+        <v>552</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>177</v>
@@ -4147,13 +5272,13 @@
       <c r="C172" s="3">
         <v>7866</v>
       </c>
-      <c r="D172" s="10">
+      <c r="D172" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="8">
-        <v>184</v>
+      <c r="A173" s="11" t="s">
+        <v>553</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>178</v>
@@ -4161,13 +5286,13 @@
       <c r="C173" s="3">
         <v>7866</v>
       </c>
-      <c r="D173" s="10">
+      <c r="D173" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="8">
-        <v>185</v>
+      <c r="A174" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>179</v>
@@ -4175,13 +5300,13 @@
       <c r="C174" s="3">
         <v>6745</v>
       </c>
-      <c r="D174" s="10">
+      <c r="D174" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="8">
-        <v>186</v>
+      <c r="A175" s="11" t="s">
+        <v>555</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>180</v>
@@ -4189,13 +5314,13 @@
       <c r="C175" s="3">
         <v>7867</v>
       </c>
-      <c r="D175" s="10">
+      <c r="D175" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="8">
-        <v>187</v>
+      <c r="A176" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>181</v>
@@ -4203,13 +5328,13 @@
       <c r="C176" s="3">
         <v>6461</v>
       </c>
-      <c r="D176" s="10">
+      <c r="D176" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="8">
-        <v>188</v>
+      <c r="A177" s="11" t="s">
+        <v>557</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>182</v>
@@ -4217,13 +5342,13 @@
       <c r="C177" s="3">
         <v>6259</v>
       </c>
-      <c r="D177" s="10">
+      <c r="D177" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="8">
-        <v>189</v>
+      <c r="A178" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>183</v>
@@ -4231,13 +5356,13 @@
       <c r="C178" s="3">
         <v>6461</v>
       </c>
-      <c r="D178" s="10">
+      <c r="D178" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="8">
-        <v>190</v>
+      <c r="A179" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>184</v>
@@ -4245,13 +5370,13 @@
       <c r="C179" s="3">
         <v>7844</v>
       </c>
-      <c r="D179" s="10">
+      <c r="D179" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="8">
-        <v>191</v>
+      <c r="A180" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>185</v>
@@ -4259,13 +5384,13 @@
       <c r="C180" s="3">
         <v>7844</v>
       </c>
-      <c r="D180" s="10">
+      <c r="D180" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="8">
-        <v>192</v>
+      <c r="A181" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>186</v>
@@ -4273,13 +5398,13 @@
       <c r="C181" s="3">
         <v>7844</v>
       </c>
-      <c r="D181" s="10">
+      <c r="D181" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="8">
-        <v>193</v>
+      <c r="A182" s="11" t="s">
+        <v>562</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>187</v>
@@ -4287,13 +5412,13 @@
       <c r="C182" s="3">
         <v>7844</v>
       </c>
-      <c r="D182" s="10">
+      <c r="D182" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="8">
-        <v>194</v>
+      <c r="A183" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>188</v>
@@ -4301,13 +5426,13 @@
       <c r="C183" s="3">
         <v>7844</v>
       </c>
-      <c r="D183" s="10">
+      <c r="D183" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="8">
-        <v>196</v>
+      <c r="A184" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>189</v>
@@ -4315,13 +5440,13 @@
       <c r="C184" s="3">
         <v>7844</v>
       </c>
-      <c r="D184" s="10">
+      <c r="D184" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="8">
-        <v>197</v>
+      <c r="A185" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>190</v>
@@ -4329,13 +5454,13 @@
       <c r="C185" s="3">
         <v>7844</v>
       </c>
-      <c r="D185" s="10">
+      <c r="D185" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="8">
-        <v>198</v>
+      <c r="A186" s="11" t="s">
+        <v>566</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>191</v>
@@ -4343,13 +5468,13 @@
       <c r="C186" s="3">
         <v>7844</v>
       </c>
-      <c r="D186" s="10">
+      <c r="D186" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="8">
-        <v>199</v>
+      <c r="A187" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>192</v>
@@ -4357,13 +5482,13 @@
       <c r="C187" s="3">
         <v>6462</v>
       </c>
-      <c r="D187" s="10">
+      <c r="D187" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="8">
-        <v>200</v>
+      <c r="A188" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>193</v>
@@ -4371,13 +5496,13 @@
       <c r="C188" s="3">
         <v>6763</v>
       </c>
-      <c r="D188" s="10">
+      <c r="D188" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="8">
-        <v>201</v>
+      <c r="A189" s="11" t="s">
+        <v>569</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>194</v>
@@ -4385,13 +5510,13 @@
       <c r="C189" s="3">
         <v>7831</v>
       </c>
-      <c r="D189" s="10">
+      <c r="D189" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="8">
-        <v>202</v>
+      <c r="A190" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>195</v>
@@ -4399,13 +5524,13 @@
       <c r="C190" s="3">
         <v>7866</v>
       </c>
-      <c r="D190" s="10">
+      <c r="D190" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="8">
-        <v>203</v>
+      <c r="A191" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>196</v>
@@ -4413,13 +5538,13 @@
       <c r="C191" s="3">
         <v>7866</v>
       </c>
-      <c r="D191" s="10">
+      <c r="D191" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="8">
-        <v>204</v>
+      <c r="A192" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>197</v>
@@ -4427,13 +5552,13 @@
       <c r="C192" s="3">
         <v>7866</v>
       </c>
-      <c r="D192" s="10">
+      <c r="D192" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="8">
-        <v>205</v>
+      <c r="A193" s="11" t="s">
+        <v>573</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>198</v>
@@ -4441,13 +5566,13 @@
       <c r="C193" s="3">
         <v>7866</v>
       </c>
-      <c r="D193" s="10">
+      <c r="D193" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="8">
-        <v>206</v>
+      <c r="A194" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>199</v>
@@ -4455,13 +5580,13 @@
       <c r="C194" s="3">
         <v>6360</v>
       </c>
-      <c r="D194" s="10">
+      <c r="D194" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="8">
-        <v>207</v>
+      <c r="A195" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>200</v>
@@ -4469,13 +5594,13 @@
       <c r="C195" s="3">
         <v>7842</v>
       </c>
-      <c r="D195" s="10">
+      <c r="D195" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="8">
-        <v>208</v>
+      <c r="A196" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>201</v>
@@ -4483,13 +5608,13 @@
       <c r="C196" s="3">
         <v>6461</v>
       </c>
-      <c r="D196" s="10">
+      <c r="D196" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="8">
-        <v>209</v>
+      <c r="A197" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>202</v>
@@ -4497,13 +5622,13 @@
       <c r="C197" s="3">
         <v>7866</v>
       </c>
-      <c r="D197" s="10">
+      <c r="D197" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="8">
-        <v>210</v>
+      <c r="A198" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>203</v>
@@ -4511,13 +5636,13 @@
       <c r="C198" s="3">
         <v>7866</v>
       </c>
-      <c r="D198" s="10">
+      <c r="D198" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="8">
-        <v>211</v>
+      <c r="A199" s="11" t="s">
+        <v>579</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>204</v>
@@ -4525,13 +5650,13 @@
       <c r="C199" s="3">
         <v>6763</v>
       </c>
-      <c r="D199" s="10">
+      <c r="D199" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="8">
-        <v>212</v>
+      <c r="A200" s="11" t="s">
+        <v>580</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>205</v>
@@ -4539,13 +5664,13 @@
       <c r="C200" s="3">
         <v>6745</v>
       </c>
-      <c r="D200" s="10">
+      <c r="D200" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="8">
-        <v>213</v>
+      <c r="A201" s="11" t="s">
+        <v>581</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>206</v>
@@ -4553,13 +5678,13 @@
       <c r="C201" s="3">
         <v>7866</v>
       </c>
-      <c r="D201" s="10">
+      <c r="D201" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="8">
-        <v>214</v>
+      <c r="A202" s="11" t="s">
+        <v>582</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>207</v>
@@ -4567,13 +5692,13 @@
       <c r="C202" s="3">
         <v>7866</v>
       </c>
-      <c r="D202" s="10">
+      <c r="D202" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="8">
-        <v>215</v>
+      <c r="A203" s="11" t="s">
+        <v>583</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>208</v>
@@ -4581,13 +5706,13 @@
       <c r="C203" s="3">
         <v>6763</v>
       </c>
-      <c r="D203" s="10">
+      <c r="D203" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="8">
-        <v>216</v>
+      <c r="A204" s="11" t="s">
+        <v>584</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>209</v>
@@ -4595,13 +5720,13 @@
       <c r="C204" s="3">
         <v>7866</v>
       </c>
-      <c r="D204" s="10">
+      <c r="D204" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="8">
-        <v>217</v>
+      <c r="A205" s="11" t="s">
+        <v>585</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>210</v>
@@ -4609,13 +5734,13 @@
       <c r="C205" s="3">
         <v>6745</v>
       </c>
-      <c r="D205" s="10">
+      <c r="D205" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="8">
-        <v>218</v>
+      <c r="A206" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>211</v>
@@ -4623,13 +5748,13 @@
       <c r="C206" s="3">
         <v>7865</v>
       </c>
-      <c r="D206" s="10">
+      <c r="D206" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="8">
-        <v>219</v>
+      <c r="A207" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>212</v>
@@ -4637,13 +5762,13 @@
       <c r="C207" s="3">
         <v>6763</v>
       </c>
-      <c r="D207" s="10">
+      <c r="D207" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="8">
-        <v>221</v>
+      <c r="A208" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>213</v>
@@ -4651,13 +5776,13 @@
       <c r="C208" s="3">
         <v>6462</v>
       </c>
-      <c r="D208" s="10">
+      <c r="D208" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="8">
-        <v>222</v>
+      <c r="A209" s="11" t="s">
+        <v>589</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>214</v>
@@ -4665,13 +5790,13 @@
       <c r="C209" s="3">
         <v>7867</v>
       </c>
-      <c r="D209" s="10">
+      <c r="D209" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="8">
-        <v>223</v>
+      <c r="A210" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>215</v>
@@ -4679,13 +5804,13 @@
       <c r="C210" s="3">
         <v>7867</v>
       </c>
-      <c r="D210" s="10">
+      <c r="D210" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="8">
-        <v>224</v>
+      <c r="A211" s="11" t="s">
+        <v>591</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>216</v>
@@ -4693,13 +5818,13 @@
       <c r="C211" s="3">
         <v>7867</v>
       </c>
-      <c r="D211" s="10">
+      <c r="D211" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="8">
-        <v>225</v>
+      <c r="A212" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>217</v>
@@ -4707,13 +5832,13 @@
       <c r="C212" s="3">
         <v>7867</v>
       </c>
-      <c r="D212" s="10">
+      <c r="D212" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="8">
-        <v>226</v>
+      <c r="A213" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>218</v>
@@ -4721,13 +5846,13 @@
       <c r="C213" s="3">
         <v>7867</v>
       </c>
-      <c r="D213" s="10">
+      <c r="D213" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="8">
-        <v>228</v>
+      <c r="A214" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>219</v>
@@ -4735,13 +5860,13 @@
       <c r="C214" s="3">
         <v>6735</v>
       </c>
-      <c r="D214" s="10">
+      <c r="D214" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="8">
-        <v>229</v>
+      <c r="A215" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>220</v>
@@ -4749,13 +5874,13 @@
       <c r="C215" s="3">
         <v>6735</v>
       </c>
-      <c r="D215" s="10">
+      <c r="D215" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="8">
-        <v>230</v>
+      <c r="A216" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>221</v>
@@ -4763,13 +5888,13 @@
       <c r="C216" s="3">
         <v>7842</v>
       </c>
-      <c r="D216" s="10">
+      <c r="D216" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="8">
-        <v>231</v>
+      <c r="A217" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>222</v>
@@ -4777,13 +5902,13 @@
       <c r="C217" s="3">
         <v>6462</v>
       </c>
-      <c r="D217" s="10">
+      <c r="D217" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="8">
-        <v>232</v>
+      <c r="A218" s="11" t="s">
+        <v>598</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>223</v>
@@ -4791,13 +5916,13 @@
       <c r="C218" s="3">
         <v>6156</v>
       </c>
-      <c r="D218" s="10">
+      <c r="D218" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="8">
-        <v>233</v>
+      <c r="A219" s="11" t="s">
+        <v>599</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>224</v>
@@ -4805,13 +5930,13 @@
       <c r="C219" s="3">
         <v>7164</v>
       </c>
-      <c r="D219" s="10">
+      <c r="D219" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="8">
-        <v>234</v>
+      <c r="A220" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>225</v>
@@ -4819,13 +5944,13 @@
       <c r="C220" s="3">
         <v>6462</v>
       </c>
-      <c r="D220" s="10">
+      <c r="D220" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="8">
-        <v>235</v>
+      <c r="A221" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>226</v>
@@ -4833,13 +5958,13 @@
       <c r="C221" s="3">
         <v>7865</v>
       </c>
-      <c r="D221" s="10">
+      <c r="D221" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="8">
-        <v>236</v>
+      <c r="A222" s="11" t="s">
+        <v>602</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>227</v>
@@ -4847,13 +5972,13 @@
       <c r="C222" s="3">
         <v>6763</v>
       </c>
-      <c r="D222" s="10">
+      <c r="D222" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="8">
-        <v>237</v>
+      <c r="A223" s="11" t="s">
+        <v>603</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>228</v>
@@ -4861,13 +5986,13 @@
       <c r="C223" s="3">
         <v>6763</v>
       </c>
-      <c r="D223" s="10">
+      <c r="D223" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="8">
-        <v>238</v>
+      <c r="A224" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>229</v>
@@ -4875,13 +6000,13 @@
       <c r="C224" s="3">
         <v>6745</v>
       </c>
-      <c r="D224" s="10">
+      <c r="D224" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="8">
-        <v>239</v>
+      <c r="A225" s="11" t="s">
+        <v>605</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>230</v>
@@ -4889,13 +6014,13 @@
       <c r="C225" s="3">
         <v>6258</v>
       </c>
-      <c r="D225" s="10">
+      <c r="D225" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="8">
-        <v>240</v>
+      <c r="A226" s="11" t="s">
+        <v>606</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>231</v>
@@ -4903,13 +6028,13 @@
       <c r="C226" s="3">
         <v>6258</v>
       </c>
-      <c r="D226" s="10">
+      <c r="D226" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="8">
-        <v>241</v>
+      <c r="A227" s="11" t="s">
+        <v>607</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>232</v>
@@ -4917,13 +6042,13 @@
       <c r="C227" s="3">
         <v>6258</v>
       </c>
-      <c r="D227" s="10">
+      <c r="D227" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="8">
-        <v>242</v>
+      <c r="A228" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>233</v>
@@ -4931,13 +6056,13 @@
       <c r="C228" s="3">
         <v>6258</v>
       </c>
-      <c r="D228" s="10">
+      <c r="D228" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="8">
-        <v>243</v>
+      <c r="A229" s="11" t="s">
+        <v>609</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>234</v>
@@ -4945,13 +6070,13 @@
       <c r="C229" s="3">
         <v>6258</v>
       </c>
-      <c r="D229" s="10">
+      <c r="D229" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="8">
-        <v>244</v>
+      <c r="A230" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>235</v>
@@ -4959,13 +6084,13 @@
       <c r="C230" s="3">
         <v>6258</v>
       </c>
-      <c r="D230" s="10">
+      <c r="D230" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="8">
-        <v>245</v>
+      <c r="A231" s="11" t="s">
+        <v>611</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>236</v>
@@ -4973,13 +6098,13 @@
       <c r="C231" s="3">
         <v>6156</v>
       </c>
-      <c r="D231" s="10">
+      <c r="D231" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="8">
-        <v>246</v>
+      <c r="A232" s="11" t="s">
+        <v>612</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>237</v>
@@ -4987,13 +6112,13 @@
       <c r="C232" s="3">
         <v>6360</v>
       </c>
-      <c r="D232" s="10">
+      <c r="D232" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="8">
-        <v>247</v>
+      <c r="A233" s="11" t="s">
+        <v>613</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>238</v>
@@ -5001,13 +6126,13 @@
       <c r="C233" s="3">
         <v>7843</v>
       </c>
-      <c r="D233" s="10">
+      <c r="D233" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="8">
-        <v>248</v>
+      <c r="A234" s="11" t="s">
+        <v>614</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>239</v>
@@ -5015,13 +6140,13 @@
       <c r="C234" s="3">
         <v>7843</v>
       </c>
-      <c r="D234" s="10">
+      <c r="D234" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="8">
-        <v>249</v>
+      <c r="A235" s="11" t="s">
+        <v>615</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>240</v>
@@ -5029,13 +6154,13 @@
       <c r="C235" s="3">
         <v>7843</v>
       </c>
-      <c r="D235" s="10">
+      <c r="D235" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="8">
-        <v>250</v>
+      <c r="A236" s="11" t="s">
+        <v>616</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>241</v>
@@ -5043,13 +6168,13 @@
       <c r="C236" s="3">
         <v>7843</v>
       </c>
-      <c r="D236" s="10">
+      <c r="D236" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="8">
-        <v>251</v>
+      <c r="A237" s="11" t="s">
+        <v>617</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>242</v>
@@ -5057,13 +6182,13 @@
       <c r="C237" s="3">
         <v>7843</v>
       </c>
-      <c r="D237" s="10">
+      <c r="D237" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="8">
-        <v>252</v>
+      <c r="A238" s="11" t="s">
+        <v>618</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>243</v>
@@ -5071,13 +6196,13 @@
       <c r="C238" s="3">
         <v>7843</v>
       </c>
-      <c r="D238" s="10">
+      <c r="D238" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="8">
-        <v>253</v>
+      <c r="A239" s="11" t="s">
+        <v>619</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>244</v>
@@ -5085,13 +6210,13 @@
       <c r="C239" s="3">
         <v>6745</v>
       </c>
-      <c r="D239" s="10">
+      <c r="D239" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="8">
-        <v>254</v>
+      <c r="A240" s="11" t="s">
+        <v>620</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>245</v>
@@ -5099,13 +6224,13 @@
       <c r="C240" s="3">
         <v>6745</v>
       </c>
-      <c r="D240" s="10">
+      <c r="D240" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="8">
-        <v>255</v>
+      <c r="A241" s="11" t="s">
+        <v>621</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>246</v>
@@ -5113,13 +6238,13 @@
       <c r="C241" s="3">
         <v>6360</v>
       </c>
-      <c r="D241" s="10">
+      <c r="D241" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="8">
-        <v>256</v>
+      <c r="A242" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>247</v>
@@ -5127,13 +6252,13 @@
       <c r="C242" s="3">
         <v>6360</v>
       </c>
-      <c r="D242" s="10">
+      <c r="D242" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="8">
-        <v>257</v>
+      <c r="A243" s="11" t="s">
+        <v>623</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>248</v>
@@ -5141,13 +6266,13 @@
       <c r="C243" s="3">
         <v>6258</v>
       </c>
-      <c r="D243" s="10">
+      <c r="D243" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="8">
-        <v>258</v>
+      <c r="A244" s="11" t="s">
+        <v>624</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>249</v>
@@ -5155,13 +6280,13 @@
       <c r="C244" s="3">
         <v>6461</v>
       </c>
-      <c r="D244" s="10">
+      <c r="D244" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="8">
-        <v>259</v>
+      <c r="A245" s="11" t="s">
+        <v>625</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>250</v>
@@ -5169,13 +6294,13 @@
       <c r="C245" s="3">
         <v>7164</v>
       </c>
-      <c r="D245" s="10">
+      <c r="D245" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="8">
-        <v>260</v>
+      <c r="A246" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>251</v>
@@ -5183,13 +6308,13 @@
       <c r="C246" s="3">
         <v>6360</v>
       </c>
-      <c r="D246" s="10">
+      <c r="D246" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="8">
-        <v>261</v>
+      <c r="A247" s="11" t="s">
+        <v>627</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>252</v>
@@ -5197,13 +6322,13 @@
       <c r="C247" s="3">
         <v>7866</v>
       </c>
-      <c r="D247" s="10">
+      <c r="D247" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="8">
-        <v>262</v>
+      <c r="A248" s="11" t="s">
+        <v>628</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>253</v>
@@ -5211,13 +6336,13 @@
       <c r="C248" s="3">
         <v>6257</v>
       </c>
-      <c r="D248" s="10">
+      <c r="D248" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="8">
-        <v>263</v>
+      <c r="A249" s="11" t="s">
+        <v>629</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>254</v>
@@ -5225,13 +6350,13 @@
       <c r="C249" s="3">
         <v>6257</v>
       </c>
-      <c r="D249" s="10">
+      <c r="D249" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="8">
-        <v>265</v>
+      <c r="A250" s="11" t="s">
+        <v>630</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>255</v>
@@ -5239,13 +6364,13 @@
       <c r="C250" s="3">
         <v>7866</v>
       </c>
-      <c r="D250" s="10">
+      <c r="D250" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="8">
-        <v>266</v>
+      <c r="A251" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>256</v>
@@ -5253,13 +6378,13 @@
       <c r="C251" s="3">
         <v>7866</v>
       </c>
-      <c r="D251" s="10">
+      <c r="D251" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="8">
-        <v>267</v>
+      <c r="A252" s="11" t="s">
+        <v>632</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>257</v>
@@ -5267,13 +6392,13 @@
       <c r="C252" s="3">
         <v>6461</v>
       </c>
-      <c r="D252" s="10">
+      <c r="D252" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="8">
-        <v>269</v>
+      <c r="A253" s="11" t="s">
+        <v>633</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>258</v>
@@ -5281,13 +6406,13 @@
       <c r="C253" s="3">
         <v>6735</v>
       </c>
-      <c r="D253" s="10">
+      <c r="D253" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="8">
-        <v>271</v>
+      <c r="A254" s="11" t="s">
+        <v>634</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>259</v>
@@ -5295,13 +6420,13 @@
       <c r="C254" s="3">
         <v>7867</v>
       </c>
-      <c r="D254" s="10">
+      <c r="D254" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="8">
-        <v>272</v>
+      <c r="A255" s="11" t="s">
+        <v>635</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>260</v>
@@ -5309,13 +6434,13 @@
       <c r="C255" s="3">
         <v>7867</v>
       </c>
-      <c r="D255" s="10">
+      <c r="D255" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="8">
-        <v>273</v>
+      <c r="A256" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>261</v>
@@ -5323,13 +6448,13 @@
       <c r="C256" s="3">
         <v>7867</v>
       </c>
-      <c r="D256" s="10">
+      <c r="D256" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="8">
-        <v>274</v>
+      <c r="A257" s="11" t="s">
+        <v>637</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>262</v>
@@ -5337,13 +6462,13 @@
       <c r="C257" s="3">
         <v>7867</v>
       </c>
-      <c r="D257" s="10">
+      <c r="D257" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="8">
-        <v>275</v>
+      <c r="A258" s="11" t="s">
+        <v>638</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>263</v>
@@ -5351,13 +6476,13 @@
       <c r="C258" s="3">
         <v>7867</v>
       </c>
-      <c r="D258" s="10">
+      <c r="D258" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="8">
-        <v>276</v>
+      <c r="A259" s="11" t="s">
+        <v>639</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>264</v>
@@ -5365,13 +6490,13 @@
       <c r="C259" s="3">
         <v>7867</v>
       </c>
-      <c r="D259" s="10">
+      <c r="D259" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="8">
-        <v>277</v>
+      <c r="A260" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>265</v>
@@ -5379,13 +6504,13 @@
       <c r="C260" s="3">
         <v>7867</v>
       </c>
-      <c r="D260" s="10">
+      <c r="D260" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="8">
-        <v>279</v>
+      <c r="A261" s="11" t="s">
+        <v>641</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>266</v>
@@ -5393,13 +6518,13 @@
       <c r="C261" s="3">
         <v>7867</v>
       </c>
-      <c r="D261" s="10">
+      <c r="D261" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="8">
-        <v>280</v>
+      <c r="A262" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>267</v>
@@ -5407,13 +6532,13 @@
       <c r="C262" s="3">
         <v>7867</v>
       </c>
-      <c r="D262" s="10">
+      <c r="D262" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="8">
-        <v>281</v>
+      <c r="A263" s="11" t="s">
+        <v>643</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>268</v>
@@ -5421,13 +6546,13 @@
       <c r="C263" s="3">
         <v>7867</v>
       </c>
-      <c r="D263" s="10">
+      <c r="D263" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="8">
-        <v>282</v>
+      <c r="A264" s="11" t="s">
+        <v>644</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>269</v>
@@ -5435,13 +6560,13 @@
       <c r="C264" s="3">
         <v>7867</v>
       </c>
-      <c r="D264" s="10">
+      <c r="D264" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="8">
-        <v>283</v>
+      <c r="A265" s="11" t="s">
+        <v>645</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>270</v>
@@ -5449,13 +6574,13 @@
       <c r="C265" s="3">
         <v>7867</v>
       </c>
-      <c r="D265" s="10">
+      <c r="D265" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="8">
-        <v>284</v>
+      <c r="A266" s="11" t="s">
+        <v>646</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>271</v>
@@ -5463,13 +6588,13 @@
       <c r="C266" s="3">
         <v>7842</v>
       </c>
-      <c r="D266" s="10">
+      <c r="D266" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="8">
-        <v>285</v>
+      <c r="A267" s="11" t="s">
+        <v>647</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>272</v>
@@ -5477,13 +6602,13 @@
       <c r="C267" s="3">
         <v>7842</v>
       </c>
-      <c r="D267" s="10">
+      <c r="D267" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="8">
-        <v>286</v>
+      <c r="A268" s="11" t="s">
+        <v>648</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>273</v>
@@ -5491,13 +6616,13 @@
       <c r="C268" s="3">
         <v>7842</v>
       </c>
-      <c r="D268" s="10">
+      <c r="D268" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="8">
-        <v>287</v>
+      <c r="A269" s="11" t="s">
+        <v>649</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>274</v>
@@ -5505,13 +6630,13 @@
       <c r="C269" s="3">
         <v>7842</v>
       </c>
-      <c r="D269" s="10">
+      <c r="D269" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="8">
-        <v>288</v>
+      <c r="A270" s="11" t="s">
+        <v>650</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>275</v>
@@ -5519,13 +6644,13 @@
       <c r="C270" s="3">
         <v>7866</v>
       </c>
-      <c r="D270" s="10">
+      <c r="D270" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="8">
-        <v>289</v>
+      <c r="A271" s="11" t="s">
+        <v>651</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>276</v>
@@ -5533,13 +6658,13 @@
       <c r="C271" s="3">
         <v>7866</v>
       </c>
-      <c r="D271" s="10">
+      <c r="D271" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="8">
-        <v>290</v>
+      <c r="A272" s="11" t="s">
+        <v>652</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>277</v>
@@ -5547,13 +6672,13 @@
       <c r="C272" s="3">
         <v>7866</v>
       </c>
-      <c r="D272" s="10">
+      <c r="D272" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="8">
-        <v>291</v>
+      <c r="A273" s="11" t="s">
+        <v>653</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>278</v>
@@ -5561,13 +6686,13 @@
       <c r="C273" s="3">
         <v>7866</v>
       </c>
-      <c r="D273" s="10">
+      <c r="D273" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="8">
-        <v>292</v>
+      <c r="A274" s="11" t="s">
+        <v>654</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>279</v>
@@ -5575,13 +6700,13 @@
       <c r="C274" s="3">
         <v>7866</v>
       </c>
-      <c r="D274" s="10">
+      <c r="D274" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="8">
-        <v>293</v>
+      <c r="A275" s="11" t="s">
+        <v>655</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>280</v>
@@ -5589,13 +6714,13 @@
       <c r="C275" s="3">
         <v>7866</v>
       </c>
-      <c r="D275" s="10">
+      <c r="D275" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="8">
-        <v>294</v>
+      <c r="A276" s="11" t="s">
+        <v>656</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>281</v>
@@ -5603,13 +6728,13 @@
       <c r="C276" s="3">
         <v>7866</v>
       </c>
-      <c r="D276" s="10">
+      <c r="D276" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="8">
-        <v>295</v>
+      <c r="A277" s="11" t="s">
+        <v>657</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>282</v>
@@ -5617,13 +6742,13 @@
       <c r="C277" s="3">
         <v>7866</v>
       </c>
-      <c r="D277" s="10">
+      <c r="D277" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="8">
-        <v>296</v>
+      <c r="A278" s="11" t="s">
+        <v>658</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>283</v>
@@ -5631,13 +6756,13 @@
       <c r="C278" s="3">
         <v>7866</v>
       </c>
-      <c r="D278" s="10">
+      <c r="D278" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="8">
-        <v>297</v>
+      <c r="A279" s="11" t="s">
+        <v>659</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>284</v>
@@ -5645,13 +6770,13 @@
       <c r="C279" s="3">
         <v>7866</v>
       </c>
-      <c r="D279" s="10">
+      <c r="D279" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="8">
-        <v>298</v>
+      <c r="A280" s="11" t="s">
+        <v>660</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>285</v>
@@ -5659,13 +6784,13 @@
       <c r="C280" s="3">
         <v>7866</v>
       </c>
-      <c r="D280" s="10">
+      <c r="D280" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="8">
-        <v>299</v>
+      <c r="A281" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>286</v>
@@ -5673,13 +6798,13 @@
       <c r="C281" s="3">
         <v>7866</v>
       </c>
-      <c r="D281" s="10">
+      <c r="D281" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="8">
-        <v>300</v>
+      <c r="A282" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>287</v>
@@ -5687,13 +6812,13 @@
       <c r="C282" s="3">
         <v>7842</v>
       </c>
-      <c r="D282" s="10">
+      <c r="D282" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="8">
-        <v>302</v>
+      <c r="A283" s="11" t="s">
+        <v>663</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>288</v>
@@ -5701,13 +6826,13 @@
       <c r="C283" s="3">
         <v>7844</v>
       </c>
-      <c r="D283" s="10">
+      <c r="D283" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="8">
-        <v>303</v>
+      <c r="A284" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>289</v>
@@ -5715,13 +6840,13 @@
       <c r="C284" s="3">
         <v>6259</v>
       </c>
-      <c r="D284" s="10">
+      <c r="D284" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="8">
-        <v>304</v>
+      <c r="A285" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>290</v>
@@ -5729,13 +6854,13 @@
       <c r="C285" s="3">
         <v>6259</v>
       </c>
-      <c r="D285" s="10">
+      <c r="D285" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="8">
-        <v>305</v>
+      <c r="A286" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>291</v>
@@ -5743,13 +6868,13 @@
       <c r="C286" s="3">
         <v>6259</v>
       </c>
-      <c r="D286" s="10">
+      <c r="D286" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="8">
-        <v>306</v>
+      <c r="A287" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>292</v>
@@ -5757,13 +6882,13 @@
       <c r="C287" s="3">
         <v>6259</v>
       </c>
-      <c r="D287" s="10">
+      <c r="D287" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="8">
-        <v>307</v>
+      <c r="A288" s="11" t="s">
+        <v>668</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>293</v>
@@ -5771,13 +6896,13 @@
       <c r="C288" s="3">
         <v>6259</v>
       </c>
-      <c r="D288" s="10">
+      <c r="D288" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="8">
-        <v>309</v>
+      <c r="A289" s="11" t="s">
+        <v>669</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>294</v>
@@ -5785,13 +6910,13 @@
       <c r="C289" s="3">
         <v>7843</v>
       </c>
-      <c r="D289" s="10">
+      <c r="D289" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="8">
-        <v>310</v>
+      <c r="A290" s="11" t="s">
+        <v>670</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>295</v>
@@ -5799,13 +6924,13 @@
       <c r="C290" s="3">
         <v>7843</v>
       </c>
-      <c r="D290" s="10">
+      <c r="D290" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="8">
-        <v>311</v>
+      <c r="A291" s="11" t="s">
+        <v>671</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>296</v>
@@ -5813,13 +6938,13 @@
       <c r="C291" s="3">
         <v>7867</v>
       </c>
-      <c r="D291" s="10">
+      <c r="D291" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="8">
-        <v>312</v>
+      <c r="A292" s="11" t="s">
+        <v>672</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>297</v>
@@ -5827,13 +6952,13 @@
       <c r="C292" s="3">
         <v>7867</v>
       </c>
-      <c r="D292" s="10">
+      <c r="D292" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="8">
-        <v>314</v>
+      <c r="A293" s="11" t="s">
+        <v>673</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>298</v>
@@ -5841,13 +6966,13 @@
       <c r="C293" s="3">
         <v>6258</v>
       </c>
-      <c r="D293" s="10">
+      <c r="D293" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="8">
-        <v>315</v>
+      <c r="A294" s="11" t="s">
+        <v>674</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>299</v>
@@ -5855,13 +6980,13 @@
       <c r="C294" s="3">
         <v>7842</v>
       </c>
-      <c r="D294" s="10">
+      <c r="D294" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="8">
-        <v>316</v>
+      <c r="A295" s="11" t="s">
+        <v>675</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>300</v>
@@ -5869,13 +6994,13 @@
       <c r="C295" s="3">
         <v>7865</v>
       </c>
-      <c r="D295" s="10">
+      <c r="D295" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="8">
-        <v>317</v>
+      <c r="A296" s="11" t="s">
+        <v>676</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>301</v>
@@ -5883,13 +7008,13 @@
       <c r="C296" s="3">
         <v>7865</v>
       </c>
-      <c r="D296" s="10">
+      <c r="D296" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="8">
-        <v>319</v>
+      <c r="A297" s="11" t="s">
+        <v>677</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>302</v>
@@ -5897,13 +7022,13 @@
       <c r="C297" s="3">
         <v>7867</v>
       </c>
-      <c r="D297" s="10">
+      <c r="D297" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="8">
-        <v>320</v>
+      <c r="A298" s="11" t="s">
+        <v>678</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>303</v>
@@ -5911,13 +7036,13 @@
       <c r="C298" s="3">
         <v>7844</v>
       </c>
-      <c r="D298" s="10">
+      <c r="D298" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="8">
-        <v>322</v>
+      <c r="A299" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>304</v>
@@ -5925,13 +7050,13 @@
       <c r="C299" s="3">
         <v>7844</v>
       </c>
-      <c r="D299" s="10">
+      <c r="D299" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="8">
-        <v>324</v>
+      <c r="A300" s="11" t="s">
+        <v>680</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>305</v>
@@ -5939,13 +7064,13 @@
       <c r="C300" s="3">
         <v>6259</v>
       </c>
-      <c r="D300" s="10">
+      <c r="D300" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="8">
-        <v>325</v>
+      <c r="A301" s="11" t="s">
+        <v>681</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>306</v>
@@ -5953,13 +7078,13 @@
       <c r="C301" s="3">
         <v>6462</v>
       </c>
-      <c r="D301" s="10">
+      <c r="D301" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="8">
-        <v>326</v>
+      <c r="A302" s="11" t="s">
+        <v>682</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>307</v>
@@ -5967,13 +7092,13 @@
       <c r="C302" s="3">
         <v>7853</v>
       </c>
-      <c r="D302" s="10">
+      <c r="D302" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="8">
-        <v>327</v>
+      <c r="A303" s="11" t="s">
+        <v>683</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>308</v>
@@ -5981,13 +7106,13 @@
       <c r="C303" s="3">
         <v>7854</v>
       </c>
-      <c r="D303" s="10">
+      <c r="D303" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="8">
-        <v>328</v>
+      <c r="A304" s="11" t="s">
+        <v>684</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>309</v>
@@ -5995,13 +7120,13 @@
       <c r="C304" s="3">
         <v>6360</v>
       </c>
-      <c r="D304" s="10">
+      <c r="D304" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="8">
-        <v>329</v>
+      <c r="A305" s="11" t="s">
+        <v>685</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>310</v>
@@ -6009,13 +7134,13 @@
       <c r="C305" s="3">
         <v>6156</v>
       </c>
-      <c r="D305" s="10">
+      <c r="D305" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="8">
-        <v>330</v>
+      <c r="A306" s="11" t="s">
+        <v>686</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>311</v>
@@ -6023,13 +7148,13 @@
       <c r="C306" s="3">
         <v>6462</v>
       </c>
-      <c r="D306" s="10">
+      <c r="D306" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="8">
-        <v>331</v>
+      <c r="A307" s="11" t="s">
+        <v>687</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>312</v>
@@ -6037,13 +7162,13 @@
       <c r="C307" s="3">
         <v>7847</v>
       </c>
-      <c r="D307" s="10">
+      <c r="D307" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="8">
-        <v>333</v>
+      <c r="A308" s="11" t="s">
+        <v>688</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>313</v>
@@ -6051,13 +7176,13 @@
       <c r="C308" s="3">
         <v>6257</v>
       </c>
-      <c r="D308" s="10">
+      <c r="D308" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="8">
-        <v>334</v>
+      <c r="A309" s="11" t="s">
+        <v>689</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>314</v>
@@ -6065,13 +7190,13 @@
       <c r="C309" s="3">
         <v>6156</v>
       </c>
-      <c r="D309" s="10">
+      <c r="D309" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="8">
-        <v>335</v>
+      <c r="A310" s="11" t="s">
+        <v>690</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>315</v>
@@ -6079,13 +7204,13 @@
       <c r="C310" s="3">
         <v>7867</v>
       </c>
-      <c r="D310" s="10">
+      <c r="D310" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="8">
-        <v>336</v>
+      <c r="A311" s="11" t="s">
+        <v>691</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>316</v>
@@ -6093,13 +7218,13 @@
       <c r="C311" s="3">
         <v>6462</v>
       </c>
-      <c r="D311" s="10">
+      <c r="D311" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="8">
-        <v>337</v>
+      <c r="A312" s="11" t="s">
+        <v>692</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>317</v>
@@ -6107,13 +7232,13 @@
       <c r="C312" s="3">
         <v>6735</v>
       </c>
-      <c r="D312" s="10">
+      <c r="D312" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="8">
-        <v>338</v>
+      <c r="A313" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>318</v>
@@ -6121,13 +7246,13 @@
       <c r="C313" s="3">
         <v>6735</v>
       </c>
-      <c r="D313" s="10">
+      <c r="D313" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="8">
-        <v>339</v>
+      <c r="A314" s="11" t="s">
+        <v>694</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>319</v>
@@ -6135,13 +7260,13 @@
       <c r="C314" s="3">
         <v>6258</v>
       </c>
-      <c r="D314" s="10">
+      <c r="D314" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="8">
-        <v>340</v>
+      <c r="A315" s="11" t="s">
+        <v>695</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>320</v>
@@ -6149,13 +7274,13 @@
       <c r="C315" s="3">
         <v>6258</v>
       </c>
-      <c r="D315" s="10">
+      <c r="D315" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="8">
-        <v>341</v>
+      <c r="A316" s="11" t="s">
+        <v>696</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>321</v>
@@ -6163,13 +7288,13 @@
       <c r="C316" s="3">
         <v>7867</v>
       </c>
-      <c r="D316" s="10">
+      <c r="D316" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="8">
-        <v>342</v>
+      <c r="A317" s="11" t="s">
+        <v>697</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>322</v>
@@ -6177,13 +7302,13 @@
       <c r="C317" s="3">
         <v>7867</v>
       </c>
-      <c r="D317" s="10">
+      <c r="D317" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="8">
-        <v>343</v>
+      <c r="A318" s="11" t="s">
+        <v>698</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>323</v>
@@ -6191,13 +7316,13 @@
       <c r="C318" s="3">
         <v>6461</v>
       </c>
-      <c r="D318" s="10">
+      <c r="D318" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="8">
-        <v>344</v>
+      <c r="A319" s="11" t="s">
+        <v>699</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>324</v>
@@ -6205,13 +7330,13 @@
       <c r="C319" s="3">
         <v>7844</v>
       </c>
-      <c r="D319" s="10">
+      <c r="D319" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="8">
-        <v>345</v>
+      <c r="A320" s="11" t="s">
+        <v>700</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>325</v>
@@ -6219,13 +7344,13 @@
       <c r="C320" s="3">
         <v>7844</v>
       </c>
-      <c r="D320" s="10">
+      <c r="D320" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="8">
-        <v>346</v>
+      <c r="A321" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>326</v>
@@ -6233,13 +7358,13 @@
       <c r="C321" s="3">
         <v>6461</v>
       </c>
-      <c r="D321" s="10">
+      <c r="D321" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="8">
-        <v>347</v>
+      <c r="A322" s="11" t="s">
+        <v>702</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>327</v>
@@ -6247,13 +7372,13 @@
       <c r="C322" s="3">
         <v>6461</v>
       </c>
-      <c r="D322" s="10">
+      <c r="D322" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="8">
-        <v>348</v>
+      <c r="A323" s="11" t="s">
+        <v>703</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>328</v>
@@ -6261,13 +7386,13 @@
       <c r="C323" s="3">
         <v>7842</v>
       </c>
-      <c r="D323" s="10">
+      <c r="D323" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="8">
-        <v>349</v>
+      <c r="A324" s="11" t="s">
+        <v>704</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>329</v>
@@ -6275,13 +7400,13 @@
       <c r="C324" s="3">
         <v>7842</v>
       </c>
-      <c r="D324" s="10">
+      <c r="D324" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="8">
-        <v>350</v>
+      <c r="A325" s="11" t="s">
+        <v>705</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>330</v>
@@ -6289,13 +7414,13 @@
       <c r="C325" s="3">
         <v>6745</v>
       </c>
-      <c r="D325" s="10">
+      <c r="D325" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="8">
-        <v>351</v>
+      <c r="A326" s="11" t="s">
+        <v>706</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>331</v>
@@ -6303,13 +7428,13 @@
       <c r="C326" s="3">
         <v>6745</v>
       </c>
-      <c r="D326" s="10">
+      <c r="D326" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="8">
-        <v>352</v>
+      <c r="A327" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>332</v>
@@ -6317,13 +7442,13 @@
       <c r="C327" s="3">
         <v>6258</v>
       </c>
-      <c r="D327" s="10">
+      <c r="D327" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="8">
-        <v>353</v>
+      <c r="A328" s="11" t="s">
+        <v>708</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>333</v>
@@ -6331,13 +7456,13 @@
       <c r="C328" s="3">
         <v>7867</v>
       </c>
-      <c r="D328" s="10">
+      <c r="D328" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="8">
-        <v>354</v>
+      <c r="A329" s="11" t="s">
+        <v>709</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>334</v>
@@ -6345,13 +7470,13 @@
       <c r="C329" s="3">
         <v>6259</v>
       </c>
-      <c r="D329" s="10">
+      <c r="D329" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="8">
-        <v>355</v>
+      <c r="A330" s="11" t="s">
+        <v>710</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>335</v>
@@ -6359,13 +7484,13 @@
       <c r="C330" s="3">
         <v>7842</v>
       </c>
-      <c r="D330" s="10">
+      <c r="D330" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="8">
-        <v>356</v>
+      <c r="A331" s="11" t="s">
+        <v>711</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>336</v>
@@ -6373,13 +7498,13 @@
       <c r="C331" s="3">
         <v>7843</v>
       </c>
-      <c r="D331" s="10">
+      <c r="D331" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="8">
-        <v>357</v>
+      <c r="A332" s="11" t="s">
+        <v>712</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>337</v>
@@ -6387,13 +7512,13 @@
       <c r="C332" s="3">
         <v>6258</v>
       </c>
-      <c r="D332" s="10">
+      <c r="D332" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="8">
-        <v>358</v>
+      <c r="A333" s="11" t="s">
+        <v>713</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>338</v>
@@ -6401,13 +7526,13 @@
       <c r="C333" s="3">
         <v>7852</v>
       </c>
-      <c r="D333" s="10">
+      <c r="D333" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="8">
-        <v>359</v>
+      <c r="A334" s="11" t="s">
+        <v>714</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>339</v>
@@ -6415,13 +7540,13 @@
       <c r="C334" s="3">
         <v>7865</v>
       </c>
-      <c r="D334" s="10">
+      <c r="D334" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="8">
-        <v>360</v>
+      <c r="A335" s="11" t="s">
+        <v>715</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>340</v>
@@ -6429,13 +7554,13 @@
       <c r="C335" s="3">
         <v>7831</v>
       </c>
-      <c r="D335" s="10">
+      <c r="D335" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="8">
-        <v>361</v>
+      <c r="A336" s="11" t="s">
+        <v>716</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>341</v>
@@ -6443,13 +7568,13 @@
       <c r="C336" s="3">
         <v>7867</v>
       </c>
-      <c r="D336" s="10">
+      <c r="D336" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="8">
-        <v>362</v>
+      <c r="A337" s="11" t="s">
+        <v>717</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>342</v>
@@ -6457,13 +7582,13 @@
       <c r="C337" s="3">
         <v>7867</v>
       </c>
-      <c r="D337" s="10">
+      <c r="D337" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="8">
-        <v>363</v>
+      <c r="A338" s="11" t="s">
+        <v>718</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>343</v>
@@ -6471,13 +7596,13 @@
       <c r="C338" s="3">
         <v>7843</v>
       </c>
-      <c r="D338" s="10">
+      <c r="D338" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="8">
-        <v>364</v>
+      <c r="A339" s="11" t="s">
+        <v>719</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>344</v>
@@ -6485,13 +7610,13 @@
       <c r="C339" s="3">
         <v>6258</v>
       </c>
-      <c r="D339" s="10">
+      <c r="D339" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="8">
-        <v>365</v>
+      <c r="A340" s="11" t="s">
+        <v>720</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>345</v>
@@ -6499,13 +7624,13 @@
       <c r="C340" s="3">
         <v>7866</v>
       </c>
-      <c r="D340" s="10">
+      <c r="D340" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="8">
-        <v>366</v>
+      <c r="A341" s="11" t="s">
+        <v>721</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>346</v>
@@ -6513,13 +7638,13 @@
       <c r="C341" s="3">
         <v>7866</v>
       </c>
-      <c r="D341" s="10">
+      <c r="D341" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="8">
-        <v>367</v>
+      <c r="A342" s="11" t="s">
+        <v>722</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>347</v>
@@ -6527,13 +7652,13 @@
       <c r="C342" s="3">
         <v>7831</v>
       </c>
-      <c r="D342" s="10">
+      <c r="D342" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="8">
-        <v>368</v>
+      <c r="A343" s="11" t="s">
+        <v>723</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>348</v>
@@ -6541,13 +7666,13 @@
       <c r="C343" s="3">
         <v>7867</v>
       </c>
-      <c r="D343" s="10">
+      <c r="D343" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="8">
-        <v>369</v>
+      <c r="A344" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>349</v>
@@ -6555,13 +7680,13 @@
       <c r="C344" s="3">
         <v>7866</v>
       </c>
-      <c r="D344" s="10">
+      <c r="D344" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="8">
-        <v>370</v>
+      <c r="A345" s="11" t="s">
+        <v>725</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>350</v>
@@ -6569,13 +7694,13 @@
       <c r="C345" s="3">
         <v>7831</v>
       </c>
-      <c r="D345" s="10">
+      <c r="D345" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="8">
-        <v>371</v>
+      <c r="A346" s="11" t="s">
+        <v>726</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>351</v>
@@ -6583,13 +7708,13 @@
       <c r="C346" s="3">
         <v>6735</v>
       </c>
-      <c r="D346" s="10">
+      <c r="D346" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="8">
-        <v>372</v>
+      <c r="A347" s="11" t="s">
+        <v>727</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>352</v>
@@ -6597,13 +7722,13 @@
       <c r="C347" s="3">
         <v>6735</v>
       </c>
-      <c r="D347" s="10">
+      <c r="D347" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="8">
-        <v>373</v>
+      <c r="A348" s="11" t="s">
+        <v>728</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>353</v>
@@ -6611,13 +7736,13 @@
       <c r="C348" s="3">
         <v>7866</v>
       </c>
-      <c r="D348" s="10">
+      <c r="D348" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="8">
-        <v>374</v>
+      <c r="A349" s="11" t="s">
+        <v>729</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>354</v>
@@ -6625,13 +7750,13 @@
       <c r="C349" s="3">
         <v>7866</v>
       </c>
-      <c r="D349" s="10">
+      <c r="D349" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="8">
-        <v>375</v>
+      <c r="A350" s="11" t="s">
+        <v>730</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>355</v>
@@ -6639,13 +7764,13 @@
       <c r="C350" s="3">
         <v>7866</v>
       </c>
-      <c r="D350" s="10">
+      <c r="D350" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="8">
-        <v>376</v>
+      <c r="A351" s="11" t="s">
+        <v>731</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>356</v>
@@ -6653,13 +7778,13 @@
       <c r="C351" s="3">
         <v>7842</v>
       </c>
-      <c r="D351" s="10">
+      <c r="D351" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="8">
-        <v>377</v>
+      <c r="A352" s="11" t="s">
+        <v>732</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>357</v>
@@ -6667,13 +7792,13 @@
       <c r="C352" s="3">
         <v>6745</v>
       </c>
-      <c r="D352" s="10">
+      <c r="D352" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" s="8">
-        <v>378</v>
+      <c r="A353" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>358</v>
@@ -6681,13 +7806,13 @@
       <c r="C353" s="3">
         <v>7843</v>
       </c>
-      <c r="D353" s="10">
+      <c r="D353" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="8">
-        <v>379</v>
+      <c r="A354" s="11" t="s">
+        <v>734</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>359</v>
@@ -6695,13 +7820,13 @@
       <c r="C354" s="3">
         <v>6156</v>
       </c>
-      <c r="D354" s="10">
+      <c r="D354" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="8">
-        <v>380</v>
+      <c r="A355" s="11" t="s">
+        <v>735</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>360</v>
@@ -6709,13 +7834,13 @@
       <c r="C355" s="3">
         <v>7865</v>
       </c>
-      <c r="D355" s="10">
+      <c r="D355" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="8">
-        <v>383</v>
+      <c r="A356" s="11" t="s">
+        <v>736</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>361</v>
@@ -6723,13 +7848,13 @@
       <c r="C356" s="3">
         <v>7849</v>
       </c>
-      <c r="D356" s="10">
+      <c r="D356" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="8">
-        <v>384</v>
+      <c r="A357" s="11" t="s">
+        <v>737</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>362</v>
@@ -6737,13 +7862,13 @@
       <c r="C357" s="3">
         <v>7844</v>
       </c>
-      <c r="D357" s="10">
+      <c r="D357" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="8">
-        <v>385</v>
+      <c r="A358" s="11" t="s">
+        <v>738</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>363</v>
@@ -6751,13 +7876,13 @@
       <c r="C358" s="3">
         <v>7854</v>
       </c>
-      <c r="D358" s="10">
+      <c r="D358" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="8">
-        <v>386</v>
+      <c r="A359" s="11" t="s">
+        <v>739</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>364</v>
@@ -6765,13 +7890,13 @@
       <c r="C359" s="3">
         <v>7844</v>
       </c>
-      <c r="D359" s="10">
+      <c r="D359" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="8">
-        <v>387</v>
+      <c r="A360" s="11" t="s">
+        <v>740</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>365</v>
@@ -6779,13 +7904,13 @@
       <c r="C360" s="3">
         <v>7844</v>
       </c>
-      <c r="D360" s="10">
+      <c r="D360" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="8">
-        <v>388</v>
+      <c r="A361" s="11" t="s">
+        <v>741</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>366</v>
@@ -6793,13 +7918,13 @@
       <c r="C361" s="3">
         <v>7843</v>
       </c>
-      <c r="D361" s="10">
+      <c r="D361" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="8">
-        <v>389</v>
+      <c r="A362" s="11" t="s">
+        <v>742</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>367</v>
@@ -6807,13 +7932,13 @@
       <c r="C362" s="3">
         <v>7843</v>
       </c>
-      <c r="D362" s="10">
+      <c r="D362" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="8">
-        <v>390</v>
+      <c r="A363" s="11" t="s">
+        <v>743</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>368</v>
@@ -6821,13 +7946,13 @@
       <c r="C363" s="3">
         <v>7843</v>
       </c>
-      <c r="D363" s="10">
+      <c r="D363" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="8">
-        <v>391</v>
+      <c r="A364" s="11" t="s">
+        <v>744</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>369</v>
@@ -6835,13 +7960,13 @@
       <c r="C364" s="3">
         <v>7842</v>
       </c>
-      <c r="D364" s="10">
+      <c r="D364" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="8">
-        <v>392</v>
+      <c r="A365" s="11" t="s">
+        <v>745</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>370</v>
@@ -6849,13 +7974,13 @@
       <c r="C365" s="3">
         <v>7844</v>
       </c>
-      <c r="D365" s="10">
+      <c r="D365" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="8">
-        <v>393</v>
+      <c r="A366" s="11" t="s">
+        <v>746</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>371</v>
@@ -6863,13 +7988,13 @@
       <c r="C366" s="3">
         <v>7865</v>
       </c>
-      <c r="D366" s="10">
+      <c r="D366" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="8">
-        <v>394</v>
+      <c r="A367" s="11" t="s">
+        <v>747</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>372</v>
@@ -6877,13 +8002,13 @@
       <c r="C367" s="3">
         <v>7865</v>
       </c>
-      <c r="D367" s="10">
+      <c r="D367" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="8">
-        <v>395</v>
+      <c r="A368" s="11" t="s">
+        <v>748</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>373</v>
@@ -6891,13 +8016,13 @@
       <c r="C368" s="3">
         <v>7855</v>
       </c>
-      <c r="D368" s="10">
+      <c r="D368" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="8">
-        <v>396</v>
+      <c r="A369" s="11" t="s">
+        <v>749</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>374</v>
@@ -6905,13 +8030,13 @@
       <c r="C369" s="3">
         <v>7855</v>
       </c>
-      <c r="D369" s="10">
+      <c r="D369" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="8">
-        <v>397</v>
+      <c r="A370" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>375</v>
@@ -6919,13 +8044,13 @@
       <c r="C370" s="3">
         <v>7865</v>
       </c>
-      <c r="D370" s="10">
+      <c r="D370" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="8">
-        <v>398</v>
+      <c r="A371" s="11" t="s">
+        <v>751</v>
       </c>
       <c r="B371" s="5" t="s">
         <v>376</v>
@@ -6933,13 +8058,13 @@
       <c r="C371" s="3">
         <v>7865</v>
       </c>
-      <c r="D371" s="10">
+      <c r="D371" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="8">
-        <v>399</v>
+      <c r="A372" s="11" t="s">
+        <v>752</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>377</v>
@@ -6947,13 +8072,13 @@
       <c r="C372" s="3">
         <v>7843</v>
       </c>
-      <c r="D372" s="10">
+      <c r="D372" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="8">
-        <v>400</v>
+      <c r="A373" s="11" t="s">
+        <v>753</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>378</v>
@@ -6961,13 +8086,13 @@
       <c r="C373" s="3">
         <v>7849</v>
       </c>
-      <c r="D373" s="10">
+      <c r="D373" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="8">
-        <v>401</v>
+      <c r="A374" s="11" t="s">
+        <v>754</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>379</v>
@@ -6975,13 +8100,13 @@
       <c r="C374" s="3">
         <v>7866</v>
       </c>
-      <c r="D374" s="10">
+      <c r="D374" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="8">
-        <v>402</v>
+      <c r="A375" s="11" t="s">
+        <v>755</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>380</v>
@@ -6989,13 +8114,13 @@
       <c r="C375" s="3">
         <v>7854</v>
       </c>
-      <c r="D375" s="10">
+      <c r="D375" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="8">
-        <v>403</v>
+      <c r="A376" s="11" t="s">
+        <v>756</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>381</v>
@@ -7003,13 +8128,13 @@
       <c r="C376" s="3">
         <v>7854</v>
       </c>
-      <c r="D376" s="10">
+      <c r="D376" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="8">
-        <v>998</v>
+      <c r="A377" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>2</v>
@@ -7017,13 +8142,13 @@
       <c r="C377" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D377" s="10" t="s">
+      <c r="D377" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="8">
-        <v>999</v>
+      <c r="A378" s="11" t="s">
+        <v>758</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>3</v>
@@ -7031,7 +8156,7 @@
       <c r="C378" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D378" s="10" t="s">
+      <c r="D378" s="8" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7046,6 +8171,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7177,25 +8320,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7211,28 +8360,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Arees_basiques_salut.xlsx
+++ b/content/drafts/entitats/Arees_basiques_salut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/78.Arees_basiques_salut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\78.Arees_basiques_salut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{331CFDA2-C6C2-4D2D-B336-766B62877E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAE1B81-29A5-4D10-83F7-E8A991FD1C6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF0A73-37F5-45B1-90B3-4021D7A0AF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="924" windowWidth="13872" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Àrees bàsiques salut" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="767">
   <si>
     <t>Codi</t>
   </si>
@@ -632,9 +632,6 @@
     <t>SANT BOI DE LLOBREGAT 4</t>
   </si>
   <si>
-    <t>SANT CARLES DE LA RÀPITA</t>
-  </si>
-  <si>
     <t>SANT CELONI</t>
   </si>
   <si>
@@ -947,9 +944,6 @@
     <t>BARBERÀ DEL VALLÈS</t>
   </si>
   <si>
-    <t>CIUTAT BADIA</t>
-  </si>
-  <si>
     <t>VANDELLÒS I L'HOSPITALET DE L'INFANT</t>
   </si>
   <si>
@@ -2310,6 +2304,36 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t>LA RÀPITA-ALCANAR</t>
+  </si>
+  <si>
+    <t>BADIA DEL VALLÈS</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>TERRASSA H</t>
+  </si>
+  <si>
+    <t>GUISSONA-LA SEGARRA</t>
+  </si>
+  <si>
+    <t>7843</t>
+  </si>
+  <si>
+    <t>6156</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -2601,7 +2625,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D378" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D380" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
@@ -2875,7 +2899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:D380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2907,12 +2931,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -2926,7 +2950,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -2940,7 +2964,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2954,7 +2978,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2968,7 +2992,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -2982,7 +3006,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -2996,7 +3020,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -3010,7 +3034,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -3024,7 +3048,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
@@ -3038,7 +3062,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
@@ -3052,7 +3076,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
@@ -3066,7 +3090,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -3080,7 +3104,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -3094,7 +3118,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -3108,7 +3132,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -3122,7 +3146,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -3136,7 +3160,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -3150,7 +3174,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
@@ -3164,7 +3188,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -3178,7 +3202,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>28</v>
@@ -3192,7 +3216,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>29</v>
@@ -3206,7 +3230,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -3220,7 +3244,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
@@ -3234,7 +3258,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
@@ -3248,7 +3272,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
@@ -3262,7 +3286,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -3276,7 +3300,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -3290,7 +3314,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -3304,7 +3328,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>37</v>
@@ -3318,7 +3342,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>38</v>
@@ -3332,7 +3356,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -3346,7 +3370,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>40</v>
@@ -3360,7 +3384,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>41</v>
@@ -3374,7 +3398,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>42</v>
@@ -3388,7 +3412,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>43</v>
@@ -3402,7 +3426,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>44</v>
@@ -3416,7 +3440,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>45</v>
@@ -3430,7 +3454,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>46</v>
@@ -3444,7 +3468,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>47</v>
@@ -3458,7 +3482,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>48</v>
@@ -3472,7 +3496,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>49</v>
@@ -3486,7 +3510,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>50</v>
@@ -3500,7 +3524,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>51</v>
@@ -3514,7 +3538,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>52</v>
@@ -3528,7 +3552,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>53</v>
@@ -3542,7 +3566,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>54</v>
@@ -3556,7 +3580,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>55</v>
@@ -3570,7 +3594,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>56</v>
@@ -3584,7 +3608,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>57</v>
@@ -3598,7 +3622,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>58</v>
@@ -3612,7 +3636,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>59</v>
@@ -3626,7 +3650,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>60</v>
@@ -3640,7 +3664,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>61</v>
@@ -3654,7 +3678,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>62</v>
@@ -3668,7 +3692,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>63</v>
@@ -3682,7 +3706,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
@@ -3696,7 +3720,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>65</v>
@@ -3710,7 +3734,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>66</v>
@@ -3724,7 +3748,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>67</v>
@@ -3738,7 +3762,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>68</v>
@@ -3752,7 +3776,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>69</v>
@@ -3766,7 +3790,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>70</v>
@@ -3780,7 +3804,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>71</v>
@@ -3794,7 +3818,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>72</v>
@@ -3808,7 +3832,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>73</v>
@@ -3822,7 +3846,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>74</v>
@@ -3836,7 +3860,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>75</v>
@@ -3850,7 +3874,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>76</v>
@@ -3864,7 +3888,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>77</v>
@@ -3878,7 +3902,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -3892,7 +3916,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>79</v>
@@ -3906,7 +3930,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>80</v>
@@ -3920,7 +3944,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>81</v>
@@ -3934,7 +3958,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>82</v>
@@ -3948,7 +3972,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>83</v>
@@ -3962,7 +3986,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>84</v>
@@ -3976,7 +4000,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>85</v>
@@ -3990,7 +4014,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>86</v>
@@ -4004,7 +4028,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>87</v>
@@ -4018,7 +4042,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>88</v>
@@ -4032,7 +4056,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>89</v>
@@ -4046,7 +4070,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>90</v>
@@ -4060,7 +4084,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>91</v>
@@ -4074,7 +4098,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>92</v>
@@ -4088,7 +4112,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>93</v>
@@ -4102,7 +4126,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>94</v>
@@ -4116,7 +4140,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>95</v>
@@ -4130,7 +4154,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>96</v>
@@ -4144,7 +4168,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>97</v>
@@ -4158,7 +4182,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>98</v>
@@ -4172,7 +4196,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>99</v>
@@ -4186,7 +4210,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>100</v>
@@ -4200,7 +4224,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>101</v>
@@ -4214,7 +4238,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>102</v>
@@ -4228,7 +4252,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>103</v>
@@ -4242,7 +4266,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>104</v>
@@ -4256,7 +4280,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>105</v>
@@ -4270,7 +4294,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>106</v>
@@ -4284,7 +4308,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>107</v>
@@ -4298,7 +4322,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>108</v>
@@ -4312,7 +4336,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>109</v>
@@ -4326,7 +4350,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>110</v>
@@ -4340,7 +4364,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>111</v>
@@ -4354,7 +4378,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>112</v>
@@ -4368,7 +4392,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>113</v>
@@ -4382,7 +4406,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>114</v>
@@ -4396,7 +4420,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>115</v>
@@ -4410,7 +4434,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>116</v>
@@ -4424,7 +4448,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>117</v>
@@ -4438,7 +4462,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>118</v>
@@ -4452,7 +4476,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>119</v>
@@ -4466,7 +4490,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>120</v>
@@ -4480,7 +4504,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>121</v>
@@ -4494,7 +4518,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>122</v>
@@ -4508,7 +4532,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>123</v>
@@ -4522,7 +4546,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>124</v>
@@ -4536,7 +4560,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>125</v>
@@ -4550,7 +4574,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>126</v>
@@ -4564,7 +4588,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>127</v>
@@ -4578,7 +4602,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>128</v>
@@ -4592,7 +4616,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>129</v>
@@ -4606,7 +4630,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>130</v>
@@ -4620,7 +4644,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>131</v>
@@ -4634,7 +4658,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>132</v>
@@ -4648,7 +4672,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>133</v>
@@ -4662,7 +4686,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>134</v>
@@ -4676,7 +4700,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>135</v>
@@ -4690,7 +4714,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>136</v>
@@ -4704,7 +4728,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>137</v>
@@ -4718,7 +4742,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>138</v>
@@ -4732,7 +4756,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>139</v>
@@ -4746,7 +4770,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>140</v>
@@ -4760,7 +4784,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>141</v>
@@ -4774,7 +4798,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>142</v>
@@ -4788,7 +4812,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>143</v>
@@ -4802,7 +4826,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>144</v>
@@ -4816,7 +4840,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>145</v>
@@ -4830,7 +4854,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>146</v>
@@ -4844,7 +4868,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>147</v>
@@ -4858,7 +4882,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>148</v>
@@ -4872,7 +4896,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>149</v>
@@ -4886,7 +4910,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>150</v>
@@ -4900,7 +4924,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>151</v>
@@ -4914,7 +4938,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>152</v>
@@ -4928,7 +4952,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>153</v>
@@ -4942,7 +4966,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>154</v>
@@ -4956,7 +4980,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>155</v>
@@ -4970,7 +4994,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>156</v>
@@ -4984,7 +5008,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>157</v>
@@ -4998,7 +5022,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>158</v>
@@ -5012,7 +5036,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>159</v>
@@ -5026,7 +5050,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>160</v>
@@ -5040,7 +5064,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>161</v>
@@ -5054,7 +5078,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>162</v>
@@ -5068,7 +5092,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>163</v>
@@ -5082,7 +5106,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>164</v>
@@ -5096,7 +5120,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>165</v>
@@ -5110,7 +5134,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>166</v>
@@ -5124,7 +5148,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>167</v>
@@ -5138,7 +5162,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>168</v>
@@ -5152,7 +5176,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>169</v>
@@ -5166,7 +5190,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>170</v>
@@ -5180,7 +5204,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>171</v>
@@ -5194,7 +5218,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>172</v>
@@ -5208,7 +5232,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>173</v>
@@ -5222,7 +5246,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>174</v>
@@ -5236,7 +5260,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>175</v>
@@ -5250,7 +5274,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>176</v>
@@ -5264,7 +5288,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>177</v>
@@ -5278,7 +5302,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>178</v>
@@ -5292,7 +5316,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>179</v>
@@ -5306,7 +5330,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>180</v>
@@ -5320,7 +5344,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>181</v>
@@ -5334,7 +5358,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>182</v>
@@ -5348,7 +5372,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>183</v>
@@ -5362,7 +5386,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>184</v>
@@ -5376,7 +5400,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>185</v>
@@ -5390,7 +5414,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>186</v>
@@ -5404,7 +5428,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>187</v>
@@ -5418,7 +5442,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>188</v>
@@ -5432,7 +5456,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>189</v>
@@ -5446,7 +5470,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>190</v>
@@ -5460,7 +5484,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>191</v>
@@ -5474,7 +5498,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>192</v>
@@ -5488,7 +5512,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>193</v>
@@ -5502,7 +5526,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>194</v>
@@ -5516,7 +5540,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>195</v>
@@ -5530,7 +5554,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>196</v>
@@ -5544,7 +5568,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>197</v>
@@ -5558,7 +5582,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>198</v>
@@ -5572,10 +5596,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>199</v>
+        <v>757</v>
       </c>
       <c r="C194" s="3">
         <v>6360</v>
@@ -5586,10 +5610,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C195" s="3">
         <v>7842</v>
@@ -5600,10 +5624,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C196" s="3">
         <v>6461</v>
@@ -5614,10 +5638,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C197" s="3">
         <v>7866</v>
@@ -5628,10 +5652,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" s="3">
         <v>7866</v>
@@ -5642,10 +5666,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C199" s="3">
         <v>6763</v>
@@ -5656,10 +5680,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C200" s="3">
         <v>6745</v>
@@ -5670,10 +5694,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C201" s="3">
         <v>7866</v>
@@ -5684,10 +5708,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C202" s="3">
         <v>7866</v>
@@ -5698,10 +5722,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" s="3">
         <v>6763</v>
@@ -5712,10 +5736,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C204" s="3">
         <v>7866</v>
@@ -5726,10 +5750,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C205" s="3">
         <v>6745</v>
@@ -5740,10 +5764,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C206" s="3">
         <v>7865</v>
@@ -5754,10 +5778,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C207" s="3">
         <v>6763</v>
@@ -5768,10 +5792,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C208" s="3">
         <v>6462</v>
@@ -5782,10 +5806,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C209" s="3">
         <v>7867</v>
@@ -5796,10 +5820,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C210" s="3">
         <v>7867</v>
@@ -5810,10 +5834,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C211" s="3">
         <v>7867</v>
@@ -5824,10 +5848,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C212" s="3">
         <v>7867</v>
@@ -5838,10 +5862,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C213" s="3">
         <v>7867</v>
@@ -5852,10 +5876,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C214" s="3">
         <v>6735</v>
@@ -5866,10 +5890,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C215" s="3">
         <v>6735</v>
@@ -5880,10 +5904,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C216" s="3">
         <v>7842</v>
@@ -5894,10 +5918,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C217" s="3">
         <v>6462</v>
@@ -5908,10 +5932,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C218" s="3">
         <v>6156</v>
@@ -5922,10 +5946,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C219" s="3">
         <v>7164</v>
@@ -5936,10 +5960,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C220" s="3">
         <v>6462</v>
@@ -5950,10 +5974,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C221" s="3">
         <v>7865</v>
@@ -5964,10 +5988,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C222" s="3">
         <v>6763</v>
@@ -5978,10 +6002,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C223" s="3">
         <v>6763</v>
@@ -5992,10 +6016,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C224" s="3">
         <v>6745</v>
@@ -6006,10 +6030,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C225" s="3">
         <v>6258</v>
@@ -6020,10 +6044,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C226" s="3">
         <v>6258</v>
@@ -6034,10 +6058,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C227" s="3">
         <v>6258</v>
@@ -6048,10 +6072,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C228" s="3">
         <v>6258</v>
@@ -6062,10 +6086,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C229" s="3">
         <v>6258</v>
@@ -6076,10 +6100,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C230" s="3">
         <v>6258</v>
@@ -6090,10 +6114,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C231" s="3">
         <v>6156</v>
@@ -6104,10 +6128,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C232" s="3">
         <v>6360</v>
@@ -6118,10 +6142,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C233" s="3">
         <v>7843</v>
@@ -6132,10 +6156,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C234" s="3">
         <v>7843</v>
@@ -6146,10 +6170,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C235" s="3">
         <v>7843</v>
@@ -6160,10 +6184,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C236" s="3">
         <v>7843</v>
@@ -6174,10 +6198,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C237" s="3">
         <v>7843</v>
@@ -6188,10 +6212,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C238" s="3">
         <v>7843</v>
@@ -6202,10 +6226,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" s="3">
         <v>6745</v>
@@ -6216,10 +6240,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C240" s="3">
         <v>6745</v>
@@ -6230,10 +6254,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C241" s="3">
         <v>6360</v>
@@ -6244,10 +6268,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C242" s="3">
         <v>6360</v>
@@ -6258,10 +6282,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C243" s="3">
         <v>6258</v>
@@ -6272,10 +6296,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C244" s="3">
         <v>6461</v>
@@ -6286,10 +6310,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" s="3">
         <v>7164</v>
@@ -6300,10 +6324,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C246" s="3">
         <v>6360</v>
@@ -6314,10 +6338,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247" s="3">
         <v>7866</v>
@@ -6328,10 +6352,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C248" s="3">
         <v>6257</v>
@@ -6342,10 +6366,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C249" s="3">
         <v>6257</v>
@@ -6356,10 +6380,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C250" s="3">
         <v>7866</v>
@@ -6370,10 +6394,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251" s="3">
         <v>7866</v>
@@ -6384,10 +6408,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C252" s="3">
         <v>6461</v>
@@ -6398,10 +6422,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C253" s="3">
         <v>6735</v>
@@ -6412,10 +6436,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C254" s="3">
         <v>7867</v>
@@ -6426,10 +6450,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C255" s="3">
         <v>7867</v>
@@ -6440,10 +6464,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C256" s="3">
         <v>7867</v>
@@ -6454,10 +6478,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C257" s="3">
         <v>7867</v>
@@ -6468,10 +6492,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C258" s="3">
         <v>7867</v>
@@ -6482,10 +6506,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C259" s="3">
         <v>7867</v>
@@ -6496,10 +6520,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C260" s="3">
         <v>7867</v>
@@ -6510,10 +6534,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C261" s="3">
         <v>7867</v>
@@ -6524,10 +6548,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C262" s="3">
         <v>7867</v>
@@ -6538,10 +6562,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C263" s="3">
         <v>7867</v>
@@ -6552,10 +6576,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264" s="3">
         <v>7867</v>
@@ -6566,10 +6590,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C265" s="3">
         <v>7867</v>
@@ -6580,10 +6604,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266" s="3">
         <v>7842</v>
@@ -6594,10 +6618,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C267" s="3">
         <v>7842</v>
@@ -6608,10 +6632,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C268" s="3">
         <v>7842</v>
@@ -6622,10 +6646,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C269" s="3">
         <v>7842</v>
@@ -6636,10 +6660,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C270" s="3">
         <v>7866</v>
@@ -6650,10 +6674,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C271" s="3">
         <v>7866</v>
@@ -6664,10 +6688,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C272" s="3">
         <v>7866</v>
@@ -6678,10 +6702,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C273" s="3">
         <v>7866</v>
@@ -6692,10 +6716,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C274" s="3">
         <v>7866</v>
@@ -6706,10 +6730,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C275" s="3">
         <v>7866</v>
@@ -6720,10 +6744,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C276" s="3">
         <v>7866</v>
@@ -6734,10 +6758,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C277" s="3">
         <v>7866</v>
@@ -6748,10 +6772,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C278" s="3">
         <v>7866</v>
@@ -6762,10 +6786,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C279" s="3">
         <v>7866</v>
@@ -6776,10 +6800,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C280" s="3">
         <v>7866</v>
@@ -6790,10 +6814,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C281" s="3">
         <v>7866</v>
@@ -6804,10 +6828,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C282" s="3">
         <v>7842</v>
@@ -6818,10 +6842,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C283" s="3">
         <v>7844</v>
@@ -6832,10 +6856,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C284" s="3">
         <v>6259</v>
@@ -6846,10 +6870,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C285" s="3">
         <v>6259</v>
@@ -6860,10 +6884,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C286" s="3">
         <v>6259</v>
@@ -6874,10 +6898,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C287" s="3">
         <v>6259</v>
@@ -6888,10 +6912,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C288" s="3">
         <v>6259</v>
@@ -6902,10 +6926,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C289" s="3">
         <v>7843</v>
@@ -6916,10 +6940,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C290" s="3">
         <v>7843</v>
@@ -6930,10 +6954,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C291" s="3">
         <v>7867</v>
@@ -6944,10 +6968,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C292" s="3">
         <v>7867</v>
@@ -6958,10 +6982,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C293" s="3">
         <v>6258</v>
@@ -6972,10 +6996,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C294" s="3">
         <v>7842</v>
@@ -6986,10 +7010,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C295" s="3">
         <v>7865</v>
@@ -7000,10 +7024,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C296" s="3">
         <v>7865</v>
@@ -7014,10 +7038,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C297" s="3">
         <v>7867</v>
@@ -7028,10 +7052,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C298" s="3">
         <v>7844</v>
@@ -7042,10 +7066,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>304</v>
+        <v>758</v>
       </c>
       <c r="C299" s="3">
         <v>7844</v>
@@ -7056,10 +7080,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C300" s="3">
         <v>6259</v>
@@ -7070,10 +7094,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C301" s="3">
         <v>6462</v>
@@ -7084,10 +7108,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C302" s="3">
         <v>7853</v>
@@ -7098,10 +7122,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C303" s="3">
         <v>7854</v>
@@ -7112,10 +7136,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C304" s="3">
         <v>6360</v>
@@ -7126,10 +7150,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C305" s="3">
         <v>6156</v>
@@ -7140,10 +7164,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C306" s="3">
         <v>6462</v>
@@ -7154,10 +7178,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C307" s="3">
         <v>7847</v>
@@ -7168,10 +7192,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C308" s="3">
         <v>6257</v>
@@ -7182,10 +7206,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C309" s="3">
         <v>6156</v>
@@ -7196,10 +7220,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C310" s="3">
         <v>7867</v>
@@ -7210,10 +7234,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C311" s="3">
         <v>6462</v>
@@ -7224,10 +7248,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C312" s="3">
         <v>6735</v>
@@ -7238,10 +7262,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C313" s="3">
         <v>6735</v>
@@ -7252,10 +7276,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C314" s="3">
         <v>6258</v>
@@ -7266,10 +7290,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C315" s="3">
         <v>6258</v>
@@ -7280,10 +7304,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C316" s="3">
         <v>7867</v>
@@ -7294,10 +7318,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C317" s="3">
         <v>7867</v>
@@ -7308,10 +7332,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C318" s="3">
         <v>6461</v>
@@ -7322,10 +7346,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C319" s="3">
         <v>7844</v>
@@ -7336,10 +7360,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C320" s="3">
         <v>7844</v>
@@ -7350,10 +7374,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C321" s="3">
         <v>6461</v>
@@ -7364,10 +7388,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C322" s="3">
         <v>6461</v>
@@ -7378,10 +7402,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C323" s="3">
         <v>7842</v>
@@ -7392,10 +7416,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C324" s="3">
         <v>7842</v>
@@ -7406,10 +7430,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C325" s="3">
         <v>6745</v>
@@ -7420,10 +7444,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C326" s="3">
         <v>6745</v>
@@ -7434,10 +7458,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C327" s="3">
         <v>6258</v>
@@ -7448,10 +7472,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C328" s="3">
         <v>7867</v>
@@ -7462,10 +7486,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C329" s="3">
         <v>6259</v>
@@ -7476,10 +7500,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C330" s="3">
         <v>7842</v>
@@ -7490,10 +7514,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C331" s="3">
         <v>7843</v>
@@ -7504,10 +7528,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C332" s="3">
         <v>6258</v>
@@ -7518,10 +7542,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C333" s="3">
         <v>7852</v>
@@ -7532,10 +7556,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C334" s="3">
         <v>7865</v>
@@ -7546,10 +7570,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C335" s="3">
         <v>7831</v>
@@ -7560,10 +7584,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C336" s="3">
         <v>7867</v>
@@ -7574,10 +7598,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C337" s="3">
         <v>7867</v>
@@ -7588,10 +7612,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C338" s="3">
         <v>7843</v>
@@ -7602,10 +7626,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C339" s="3">
         <v>6258</v>
@@ -7616,10 +7640,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C340" s="3">
         <v>7866</v>
@@ -7630,10 +7654,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C341" s="3">
         <v>7866</v>
@@ -7644,10 +7668,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C342" s="3">
         <v>7831</v>
@@ -7658,10 +7682,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C343" s="3">
         <v>7867</v>
@@ -7672,10 +7696,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C344" s="3">
         <v>7866</v>
@@ -7686,10 +7710,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C345" s="3">
         <v>7831</v>
@@ -7700,10 +7724,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C346" s="3">
         <v>6735</v>
@@ -7714,10 +7738,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C347" s="3">
         <v>6735</v>
@@ -7728,10 +7752,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C348" s="3">
         <v>7866</v>
@@ -7742,10 +7766,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C349" s="3">
         <v>7866</v>
@@ -7756,10 +7780,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C350" s="3">
         <v>7866</v>
@@ -7770,10 +7794,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C351" s="3">
         <v>7842</v>
@@ -7784,10 +7808,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C352" s="3">
         <v>6745</v>
@@ -7798,10 +7822,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C353" s="3">
         <v>7843</v>
@@ -7812,10 +7836,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C354" s="3">
         <v>6156</v>
@@ -7826,10 +7850,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C355" s="3">
         <v>7865</v>
@@ -7840,10 +7864,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C356" s="3">
         <v>7849</v>
@@ -7854,10 +7878,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C357" s="3">
         <v>7844</v>
@@ -7868,10 +7892,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C358" s="3">
         <v>7854</v>
@@ -7882,10 +7906,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C359" s="3">
         <v>7844</v>
@@ -7896,10 +7920,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C360" s="3">
         <v>7844</v>
@@ -7910,10 +7934,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C361" s="3">
         <v>7843</v>
@@ -7924,10 +7948,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C362" s="3">
         <v>7843</v>
@@ -7938,10 +7962,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C363" s="3">
         <v>7843</v>
@@ -7952,10 +7976,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C364" s="3">
         <v>7842</v>
@@ -7966,10 +7990,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C365" s="3">
         <v>7844</v>
@@ -7980,10 +8004,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C366" s="3">
         <v>7865</v>
@@ -7994,10 +8018,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C367" s="3">
         <v>7865</v>
@@ -8008,10 +8032,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C368" s="3">
         <v>7855</v>
@@ -8022,10 +8046,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C369" s="3">
         <v>7855</v>
@@ -8036,10 +8060,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C370" s="3">
         <v>7865</v>
@@ -8050,10 +8074,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C371" s="3">
         <v>7865</v>
@@ -8064,10 +8088,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C372" s="3">
         <v>7843</v>
@@ -8078,10 +8102,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C373" s="3">
         <v>7849</v>
@@ -8092,10 +8116,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C374" s="3">
         <v>7866</v>
@@ -8106,10 +8130,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C375" s="3">
         <v>7854</v>
@@ -8120,10 +8144,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C376" s="3">
         <v>7854</v>
@@ -8134,30 +8158,58 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>2</v>
+        <v>761</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>5</v>
+        <v>763</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>383</v>
+        <v>765</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="B378" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C380" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D378" s="8" t="s">
-        <v>383</v>
+      <c r="D380" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8171,35 +8223,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8207,17 +8246,46 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Data d'inici de la planificació" ma:description="Data d'inici de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina començarà a aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Data de finalització de la planificació" ma:description="Data de finalització de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina deixarà d'aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8230,8 +8298,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -8320,7 +8388,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA6D558-96C2-460B-85A7-C80599A94855}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -8334,30 +8433,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Arees_basiques_salut.xlsx
+++ b/content/drafts/entitats/Arees_basiques_salut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\78.Arees_basiques_salut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF0A73-37F5-45B1-90B3-4021D7A0AF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4396D-9C4E-46B6-8E3E-86BBCF7559FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="924" windowWidth="13872" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1284" windowWidth="17496" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Àrees bàsiques salut" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="769">
   <si>
     <t>Codi</t>
   </si>
@@ -335,9 +335,6 @@
     <t>CENTELLES</t>
   </si>
   <si>
-    <t>LA CERDANYA</t>
-  </si>
-  <si>
     <t>CERDANYOLA DEL VALLÈS 1</t>
   </si>
   <si>
@@ -437,18 +434,9 @@
     <t>LLEIDA 3 EIXAMPLE</t>
   </si>
   <si>
-    <t>LLEIDA 4 BALÀFIA-PARDINYES</t>
-  </si>
-  <si>
     <t>LLEIDA 5 CAPPONT</t>
   </si>
   <si>
-    <t>LLEIDA 6 BORDETA-MAGRANERS</t>
-  </si>
-  <si>
-    <t>LLEIDA RURAL 1-NORD</t>
-  </si>
-  <si>
     <t>LLORET DE MAR</t>
   </si>
   <si>
@@ -527,9 +515,6 @@
     <t>OLESA DE MONTSERRAT</t>
   </si>
   <si>
-    <t>ALT URGELL-SUD</t>
-  </si>
-  <si>
     <t>OLOT</t>
   </si>
   <si>
@@ -545,9 +530,6 @@
     <t>PARETS DEL VALLÈS</t>
   </si>
   <si>
-    <t>PENEDÈS RURAL</t>
-  </si>
-  <si>
     <t>PERALADA</t>
   </si>
   <si>
@@ -770,12 +752,6 @@
     <t>VALL DEL GES</t>
   </si>
   <si>
-    <t>TORTOSA 1 - EST</t>
-  </si>
-  <si>
-    <t>TORTOSA 2 - OEST</t>
-  </si>
-  <si>
     <t>TORREDEMBARRA</t>
   </si>
   <si>
@@ -959,9 +935,6 @@
     <t>L'ALDEA - CAMARLES - L'AMPOLLA</t>
   </si>
   <si>
-    <t>LLEIDA RURAL 2-SUD</t>
-  </si>
-  <si>
     <t>BREDA - HOSTALRIC</t>
   </si>
   <si>
@@ -1082,12 +1055,6 @@
     <t>ABRERA</t>
   </si>
   <si>
-    <t>IGUALADA-1</t>
-  </si>
-  <si>
-    <t>IGUALADA-2</t>
-  </si>
-  <si>
     <t>BEGUES</t>
   </si>
   <si>
@@ -1664,9 +1631,6 @@
     <t>175</t>
   </si>
   <si>
-    <t>176</t>
-  </si>
-  <si>
     <t>177</t>
   </si>
   <si>
@@ -2306,9 +2270,6 @@
     <t>999</t>
   </si>
   <si>
-    <t>LA RÀPITA-ALCANAR</t>
-  </si>
-  <si>
     <t>BADIA DEL VALLÈS</t>
   </si>
   <si>
@@ -2334,6 +2295,51 @@
   </si>
   <si>
     <t>61</t>
+  </si>
+  <si>
+    <t>CERDANYA</t>
+  </si>
+  <si>
+    <t>LLEIDA 4 BALÀFIA - PARDINYES</t>
+  </si>
+  <si>
+    <t>LLEIDA 6 BORDETA - MAGRANERS</t>
+  </si>
+  <si>
+    <t>LLEIDA RURAL 1 NORD</t>
+  </si>
+  <si>
+    <t>ALT URGELL SUD</t>
+  </si>
+  <si>
+    <t>LA RÀPITA - ALCANAR</t>
+  </si>
+  <si>
+    <t>TORTOSA 1 EST</t>
+  </si>
+  <si>
+    <t>TORTOSA 2 OEST</t>
+  </si>
+  <si>
+    <t>LLEIDA RURAL 2 SUD</t>
+  </si>
+  <si>
+    <t>IGUALADA 1</t>
+  </si>
+  <si>
+    <t>IGUALADA 2</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>PENEDÈS RURAL EST</t>
+  </si>
+  <si>
+    <t>PENEDÈS RURAL OEST</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2631,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D380" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D381" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
@@ -2899,7 +2905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2931,12 +2937,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -2950,7 +2956,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -2964,7 +2970,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2978,7 +2984,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -3006,7 +3012,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -3034,7 +3040,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
@@ -3062,7 +3068,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -3104,7 +3110,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -3118,7 +3124,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -3132,7 +3138,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -3146,7 +3152,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -3202,7 +3208,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>28</v>
@@ -3216,7 +3222,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>29</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
@@ -3258,7 +3264,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>37</v>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>38</v>
@@ -3356,7 +3362,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -3370,7 +3376,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>40</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>41</v>
@@ -3398,7 +3404,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>42</v>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>43</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>44</v>
@@ -3440,7 +3446,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>45</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>46</v>
@@ -3468,7 +3474,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>47</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>48</v>
@@ -3496,7 +3502,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>49</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>50</v>
@@ -3524,7 +3530,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>51</v>
@@ -3538,7 +3544,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>52</v>
@@ -3552,7 +3558,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>53</v>
@@ -3566,7 +3572,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>54</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>55</v>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>56</v>
@@ -3608,7 +3614,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>57</v>
@@ -3622,7 +3628,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>58</v>
@@ -3636,7 +3642,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>59</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>60</v>
@@ -3664,7 +3670,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>61</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>62</v>
@@ -3692,7 +3698,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>63</v>
@@ -3706,7 +3712,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
@@ -3720,7 +3726,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>65</v>
@@ -3734,7 +3740,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>66</v>
@@ -3748,7 +3754,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>67</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>68</v>
@@ -3776,7 +3782,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>69</v>
@@ -3790,7 +3796,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>70</v>
@@ -3804,7 +3810,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>71</v>
@@ -3818,7 +3824,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>72</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>73</v>
@@ -3846,7 +3852,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>74</v>
@@ -3860,7 +3866,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>75</v>
@@ -3874,7 +3880,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>76</v>
@@ -3888,7 +3894,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>77</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -3916,7 +3922,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>79</v>
@@ -3930,7 +3936,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>80</v>
@@ -3944,7 +3950,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>81</v>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>82</v>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>83</v>
@@ -3986,7 +3992,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>84</v>
@@ -4000,7 +4006,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>85</v>
@@ -4014,7 +4020,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>86</v>
@@ -4028,7 +4034,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>87</v>
@@ -4042,7 +4048,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>88</v>
@@ -4056,7 +4062,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>89</v>
@@ -4070,7 +4076,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>90</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>91</v>
@@ -4098,7 +4104,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>92</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>93</v>
@@ -4126,7 +4132,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>94</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>95</v>
@@ -4154,7 +4160,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>96</v>
@@ -4168,7 +4174,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>97</v>
@@ -4182,7 +4188,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>98</v>
@@ -4196,7 +4202,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>99</v>
@@ -4210,10 +4216,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>100</v>
+        <v>754</v>
       </c>
       <c r="C95" s="3">
         <v>7164</v>
@@ -4224,10 +4230,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="3">
         <v>7844</v>
@@ -4238,10 +4244,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="3">
         <v>7844</v>
@@ -4252,10 +4258,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="3">
         <v>6156</v>
@@ -4266,10 +4272,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" s="3">
         <v>6258</v>
@@ -4280,10 +4286,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" s="3">
         <v>7866</v>
@@ -4294,10 +4300,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" s="3">
         <v>7866</v>
@@ -4308,10 +4314,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" s="3">
         <v>7866</v>
@@ -4322,10 +4328,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" s="3">
         <v>7866</v>
@@ -4336,10 +4342,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="3">
         <v>6259</v>
@@ -4350,10 +4356,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="3">
         <v>6360</v>
@@ -4364,10 +4370,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="3">
         <v>6461</v>
@@ -4378,10 +4384,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="3">
         <v>7831</v>
@@ -4392,10 +4398,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="3">
         <v>7866</v>
@@ -4406,10 +4412,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="3">
         <v>7866</v>
@@ -4420,10 +4426,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="3">
         <v>6259</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="3">
         <v>6461</v>
@@ -4448,10 +4454,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="3">
         <v>6360</v>
@@ -4462,10 +4468,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="3">
         <v>7842</v>
@@ -4476,10 +4482,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="3">
         <v>7866</v>
@@ -4490,10 +4496,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="3">
         <v>7866</v>
@@ -4504,10 +4510,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" s="3">
         <v>6462</v>
@@ -4518,10 +4524,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" s="3">
         <v>6462</v>
@@ -4532,10 +4538,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" s="3">
         <v>6462</v>
@@ -4546,10 +4552,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="3">
         <v>6462</v>
@@ -4560,10 +4566,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="3">
         <v>6763</v>
@@ -4574,10 +4580,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" s="3">
         <v>6156</v>
@@ -4588,10 +4594,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C122" s="3">
         <v>6763</v>
@@ -4602,10 +4608,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C123" s="3">
         <v>6735</v>
@@ -4616,10 +4622,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" s="3">
         <v>6461</v>
@@ -4630,10 +4636,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" s="3">
         <v>6461</v>
@@ -4644,10 +4650,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C126" s="3">
         <v>6156</v>
@@ -4658,10 +4664,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" s="3">
         <v>6156</v>
@@ -4672,10 +4678,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="3">
         <v>6156</v>
@@ -4686,10 +4692,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>134</v>
+        <v>755</v>
       </c>
       <c r="C129" s="3">
         <v>6156</v>
@@ -4700,10 +4706,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C130" s="3">
         <v>6156</v>
@@ -4714,10 +4720,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>136</v>
+        <v>756</v>
       </c>
       <c r="C131" s="3">
         <v>6156</v>
@@ -4728,10 +4734,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>137</v>
+        <v>757</v>
       </c>
       <c r="C132" s="3">
         <v>6156</v>
@@ -4742,10 +4748,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C133" s="3">
         <v>6462</v>
@@ -4756,10 +4762,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C134" s="3">
         <v>6462</v>
@@ -4770,10 +4776,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C135" s="3">
         <v>6745</v>
@@ -4784,10 +4790,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C136" s="3">
         <v>6763</v>
@@ -4798,10 +4804,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C137" s="3">
         <v>6763</v>
@@ -4812,10 +4818,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C138" s="3">
         <v>6763</v>
@@ -4826,10 +4832,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C139" s="3">
         <v>6763</v>
@@ -4840,10 +4846,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3">
         <v>7831</v>
@@ -4854,10 +4860,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C141" s="3">
         <v>7842</v>
@@ -4868,10 +4874,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C142" s="3">
         <v>7867</v>
@@ -4882,10 +4888,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C143" s="3">
         <v>7867</v>
@@ -4896,10 +4902,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C144" s="3">
         <v>7867</v>
@@ -4910,10 +4916,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C145" s="3">
         <v>7867</v>
@@ -4924,10 +4930,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C146" s="3">
         <v>7867</v>
@@ -4938,10 +4944,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C147" s="3">
         <v>7867</v>
@@ -4952,10 +4958,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C148" s="3">
         <v>7867</v>
@@ -4966,10 +4972,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C149" s="3">
         <v>6763</v>
@@ -4980,10 +4986,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C150" s="3">
         <v>7866</v>
@@ -4994,10 +5000,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C151" s="3">
         <v>6156</v>
@@ -5008,10 +5014,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C152" s="3">
         <v>6257</v>
@@ -5022,10 +5028,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C153" s="3">
         <v>6259</v>
@@ -5036,10 +5042,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C154" s="3">
         <v>7842</v>
@@ -5050,10 +5056,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C155" s="3">
         <v>6360</v>
@@ -5064,10 +5070,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C156" s="3">
         <v>6258</v>
@@ -5078,10 +5084,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C157" s="3">
         <v>6763</v>
@@ -5092,10 +5098,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C158" s="3">
         <v>7831</v>
@@ -5106,10 +5112,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>164</v>
+        <v>758</v>
       </c>
       <c r="C159" s="3">
         <v>7164</v>
@@ -5120,10 +5126,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C160" s="3">
         <v>6461</v>
@@ -5134,10 +5140,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C161" s="3">
         <v>6461</v>
@@ -5148,10 +5154,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C162" s="3">
         <v>6461</v>
@@ -5162,10 +5168,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C163" s="3">
         <v>7164</v>
@@ -5176,10 +5182,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C164" s="3">
         <v>7842</v>
@@ -5190,52 +5196,52 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C165" s="3">
-        <v>7865</v>
+        <v>6461</v>
       </c>
       <c r="D165" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C166" s="3">
-        <v>6461</v>
+        <v>6360</v>
       </c>
       <c r="D166" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C167" s="3">
-        <v>6360</v>
+        <v>7164</v>
       </c>
       <c r="D167" s="8">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C168" s="3">
         <v>7164</v>
@@ -5246,38 +5252,38 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C169" s="3">
-        <v>7164</v>
+        <v>6156</v>
       </c>
       <c r="D169" s="8">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C170" s="3">
-        <v>6156</v>
+        <v>7866</v>
       </c>
       <c r="D170" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C171" s="3">
         <v>7866</v>
@@ -5288,10 +5294,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C172" s="3">
         <v>7866</v>
@@ -5302,94 +5308,94 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C173" s="3">
-        <v>7866</v>
+        <v>6745</v>
       </c>
       <c r="D173" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C174" s="3">
-        <v>6745</v>
+        <v>7867</v>
       </c>
       <c r="D174" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C175" s="3">
-        <v>7867</v>
+        <v>6461</v>
       </c>
       <c r="D175" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C176" s="3">
-        <v>6461</v>
+        <v>6259</v>
       </c>
       <c r="D176" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C177" s="3">
-        <v>6259</v>
+        <v>6461</v>
       </c>
       <c r="D177" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C178" s="3">
-        <v>6461</v>
+        <v>7844</v>
       </c>
       <c r="D178" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C179" s="3">
         <v>7844</v>
@@ -5400,10 +5406,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C180" s="3">
         <v>7844</v>
@@ -5414,10 +5420,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C181" s="3">
         <v>7844</v>
@@ -5428,10 +5434,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C182" s="3">
         <v>7844</v>
@@ -5442,10 +5448,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C183" s="3">
         <v>7844</v>
@@ -5456,10 +5462,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C184" s="3">
         <v>7844</v>
@@ -5470,10 +5476,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C185" s="3">
         <v>7844</v>
@@ -5484,55 +5490,55 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C186" s="3">
-        <v>7844</v>
+        <v>6462</v>
       </c>
       <c r="D186" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C187" s="3">
-        <v>6462</v>
+        <v>6763</v>
       </c>
       <c r="D187" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C188" s="3">
-        <v>6763</v>
+        <v>7831</v>
       </c>
       <c r="D188" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C189" s="3">
-        <v>7831</v>
+        <v>7866</v>
       </c>
       <c r="D189" s="8">
         <v>78</v>
@@ -5540,10 +5546,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C190" s="3">
         <v>7866</v>
@@ -5554,10 +5560,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C191" s="3">
         <v>7866</v>
@@ -5568,10 +5574,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C192" s="3">
         <v>7866</v>
@@ -5582,66 +5588,66 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>198</v>
+        <v>759</v>
       </c>
       <c r="C193" s="3">
-        <v>7866</v>
+        <v>6360</v>
       </c>
       <c r="D193" s="8">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>757</v>
+        <v>193</v>
       </c>
       <c r="C194" s="3">
-        <v>6360</v>
+        <v>7842</v>
       </c>
       <c r="D194" s="8">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C195" s="3">
-        <v>7842</v>
+        <v>6461</v>
       </c>
       <c r="D195" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C196" s="3">
-        <v>6461</v>
+        <v>7866</v>
       </c>
       <c r="D196" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C197" s="3">
         <v>7866</v>
@@ -5652,27 +5658,27 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C198" s="3">
-        <v>7866</v>
+        <v>6763</v>
       </c>
       <c r="D198" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C199" s="3">
-        <v>6763</v>
+        <v>6745</v>
       </c>
       <c r="D199" s="8">
         <v>67</v>
@@ -5680,24 +5686,24 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C200" s="3">
-        <v>6745</v>
+        <v>7866</v>
       </c>
       <c r="D200" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C201" s="3">
         <v>7866</v>
@@ -5708,108 +5714,108 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C202" s="3">
-        <v>7866</v>
+        <v>6763</v>
       </c>
       <c r="D202" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C203" s="3">
-        <v>6763</v>
+        <v>7866</v>
       </c>
       <c r="D203" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C204" s="3">
-        <v>7866</v>
+        <v>6745</v>
       </c>
       <c r="D204" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C205" s="3">
-        <v>6745</v>
+        <v>7865</v>
       </c>
       <c r="D205" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C206" s="3">
-        <v>7865</v>
+        <v>6763</v>
       </c>
       <c r="D206" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C207" s="3">
-        <v>6763</v>
+        <v>6462</v>
       </c>
       <c r="D207" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C208" s="3">
-        <v>6462</v>
+        <v>7867</v>
       </c>
       <c r="D208" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C209" s="3">
         <v>7867</v>
@@ -5820,10 +5826,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C210" s="3">
         <v>7867</v>
@@ -5834,10 +5840,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C211" s="3">
         <v>7867</v>
@@ -5848,10 +5854,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C212" s="3">
         <v>7867</v>
@@ -5862,24 +5868,24 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C213" s="3">
-        <v>7867</v>
+        <v>6735</v>
       </c>
       <c r="D213" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C214" s="3">
         <v>6735</v>
@@ -5890,108 +5896,108 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C215" s="3">
-        <v>6735</v>
+        <v>7842</v>
       </c>
       <c r="D215" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C216" s="3">
-        <v>7842</v>
+        <v>6462</v>
       </c>
       <c r="D216" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C217" s="3">
-        <v>6462</v>
+        <v>6156</v>
       </c>
       <c r="D217" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C218" s="3">
-        <v>6156</v>
+        <v>7164</v>
       </c>
       <c r="D218" s="8">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C219" s="3">
-        <v>7164</v>
+        <v>6462</v>
       </c>
       <c r="D219" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C220" s="3">
-        <v>6462</v>
+        <v>7865</v>
       </c>
       <c r="D220" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C221" s="3">
-        <v>7865</v>
+        <v>6763</v>
       </c>
       <c r="D221" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C222" s="3">
         <v>6763</v>
@@ -6002,13 +6008,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C223" s="3">
-        <v>6763</v>
+        <v>6745</v>
       </c>
       <c r="D223" s="8">
         <v>67</v>
@@ -6016,24 +6022,24 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C224" s="3">
-        <v>6745</v>
+        <v>6258</v>
       </c>
       <c r="D224" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C225" s="3">
         <v>6258</v>
@@ -6044,10 +6050,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C226" s="3">
         <v>6258</v>
@@ -6058,10 +6064,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C227" s="3">
         <v>6258</v>
@@ -6072,10 +6078,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C228" s="3">
         <v>6258</v>
@@ -6086,10 +6092,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C229" s="3">
         <v>6258</v>
@@ -6100,52 +6106,52 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C230" s="3">
-        <v>6258</v>
+        <v>6156</v>
       </c>
       <c r="D230" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C231" s="3">
-        <v>6156</v>
+        <v>6360</v>
       </c>
       <c r="D231" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C232" s="3">
-        <v>6360</v>
+        <v>7843</v>
       </c>
       <c r="D232" s="8">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C233" s="3">
         <v>7843</v>
@@ -6156,10 +6162,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C234" s="3">
         <v>7843</v>
@@ -6170,10 +6176,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C235" s="3">
         <v>7843</v>
@@ -6184,10 +6190,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C236" s="3">
         <v>7843</v>
@@ -6198,10 +6204,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C237" s="3">
         <v>7843</v>
@@ -6212,24 +6218,24 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C238" s="3">
-        <v>7843</v>
+        <v>6745</v>
       </c>
       <c r="D238" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C239" s="3">
         <v>6745</v>
@@ -6240,24 +6246,24 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>244</v>
+        <v>760</v>
       </c>
       <c r="C240" s="3">
-        <v>6745</v>
+        <v>6360</v>
       </c>
       <c r="D240" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>245</v>
+        <v>761</v>
       </c>
       <c r="C241" s="3">
         <v>6360</v>
@@ -6268,94 +6274,94 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C242" s="3">
-        <v>6360</v>
+        <v>6258</v>
       </c>
       <c r="D242" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C243" s="3">
-        <v>6258</v>
+        <v>6461</v>
       </c>
       <c r="D243" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3">
-        <v>6461</v>
+        <v>7164</v>
       </c>
       <c r="D244" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C245" s="3">
-        <v>7164</v>
+        <v>6360</v>
       </c>
       <c r="D245" s="8">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C246" s="3">
-        <v>6360</v>
+        <v>7866</v>
       </c>
       <c r="D246" s="8">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C247" s="3">
-        <v>7866</v>
+        <v>6257</v>
       </c>
       <c r="D247" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C248" s="3">
         <v>6257</v>
@@ -6366,24 +6372,24 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="11" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3">
-        <v>6257</v>
+        <v>7866</v>
       </c>
       <c r="D249" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3">
         <v>7866</v>
@@ -6394,52 +6400,52 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C251" s="3">
-        <v>7866</v>
+        <v>6461</v>
       </c>
       <c r="D251" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C252" s="3">
-        <v>6461</v>
+        <v>6735</v>
       </c>
       <c r="D252" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C253" s="3">
-        <v>6735</v>
+        <v>7867</v>
       </c>
       <c r="D253" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C254" s="3">
         <v>7867</v>
@@ -6450,10 +6456,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C255" s="3">
         <v>7867</v>
@@ -6464,10 +6470,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C256" s="3">
         <v>7867</v>
@@ -6478,10 +6484,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C257" s="3">
         <v>7867</v>
@@ -6492,10 +6498,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C258" s="3">
         <v>7867</v>
@@ -6506,10 +6512,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C259" s="3">
         <v>7867</v>
@@ -6520,10 +6526,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C260" s="3">
         <v>7867</v>
@@ -6534,10 +6540,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C261" s="3">
         <v>7867</v>
@@ -6548,10 +6554,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C262" s="3">
         <v>7867</v>
@@ -6562,10 +6568,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C263" s="3">
         <v>7867</v>
@@ -6576,10 +6582,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C264" s="3">
         <v>7867</v>
@@ -6590,13 +6596,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C265" s="3">
-        <v>7867</v>
+        <v>7842</v>
       </c>
       <c r="D265" s="8">
         <v>78</v>
@@ -6604,10 +6610,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C266" s="3">
         <v>7842</v>
@@ -6618,10 +6624,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C267" s="3">
         <v>7842</v>
@@ -6632,10 +6638,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C268" s="3">
         <v>7842</v>
@@ -6646,13 +6652,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C269" s="3">
-        <v>7842</v>
+        <v>7866</v>
       </c>
       <c r="D269" s="8">
         <v>78</v>
@@ -6660,10 +6666,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C270" s="3">
         <v>7866</v>
@@ -6674,10 +6680,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C271" s="3">
         <v>7866</v>
@@ -6688,10 +6694,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C272" s="3">
         <v>7866</v>
@@ -6702,10 +6708,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C273" s="3">
         <v>7866</v>
@@ -6716,10 +6722,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C274" s="3">
         <v>7866</v>
@@ -6730,10 +6736,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C275" s="3">
         <v>7866</v>
@@ -6744,10 +6750,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C276" s="3">
         <v>7866</v>
@@ -6758,10 +6764,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C277" s="3">
         <v>7866</v>
@@ -6772,10 +6778,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C278" s="3">
         <v>7866</v>
@@ -6786,10 +6792,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C279" s="3">
         <v>7866</v>
@@ -6800,10 +6806,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C280" s="3">
         <v>7866</v>
@@ -6814,13 +6820,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C281" s="3">
-        <v>7866</v>
+        <v>7842</v>
       </c>
       <c r="D281" s="8">
         <v>78</v>
@@ -6828,13 +6834,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C282" s="3">
-        <v>7842</v>
+        <v>7844</v>
       </c>
       <c r="D282" s="8">
         <v>78</v>
@@ -6842,24 +6848,24 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C283" s="3">
-        <v>7844</v>
+        <v>6259</v>
       </c>
       <c r="D283" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C284" s="3">
         <v>6259</v>
@@ -6870,10 +6876,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C285" s="3">
         <v>6259</v>
@@ -6884,10 +6890,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C286" s="3">
         <v>6259</v>
@@ -6898,10 +6904,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C287" s="3">
         <v>6259</v>
@@ -6912,24 +6918,24 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C288" s="3">
-        <v>6259</v>
+        <v>7843</v>
       </c>
       <c r="D288" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C289" s="3">
         <v>7843</v>
@@ -6940,13 +6946,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C290" s="3">
-        <v>7843</v>
+        <v>7867</v>
       </c>
       <c r="D290" s="8">
         <v>78</v>
@@ -6954,10 +6960,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C291" s="3">
         <v>7867</v>
@@ -6968,41 +6974,41 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C292" s="3">
-        <v>7867</v>
+        <v>6258</v>
       </c>
       <c r="D292" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C293" s="3">
-        <v>6258</v>
+        <v>7842</v>
       </c>
       <c r="D293" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="11" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C294" s="3">
-        <v>7842</v>
+        <v>7865</v>
       </c>
       <c r="D294" s="8">
         <v>78</v>
@@ -7010,10 +7016,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="11" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C295" s="3">
         <v>7865</v>
@@ -7024,13 +7030,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="11" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C296" s="3">
-        <v>7865</v>
+        <v>7867</v>
       </c>
       <c r="D296" s="8">
         <v>78</v>
@@ -7038,13 +7044,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C297" s="3">
-        <v>7867</v>
+        <v>7844</v>
       </c>
       <c r="D297" s="8">
         <v>78</v>
@@ -7052,10 +7058,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>302</v>
+        <v>745</v>
       </c>
       <c r="C298" s="3">
         <v>7844</v>
@@ -7066,55 +7072,55 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>758</v>
+        <v>295</v>
       </c>
       <c r="C299" s="3">
-        <v>7844</v>
+        <v>6259</v>
       </c>
       <c r="D299" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="11" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C300" s="3">
-        <v>6259</v>
+        <v>6462</v>
       </c>
       <c r="D300" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C301" s="3">
-        <v>6462</v>
+        <v>7853</v>
       </c>
       <c r="D301" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C302" s="3">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="D302" s="8">
         <v>78</v>
@@ -7122,136 +7128,136 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C303" s="3">
-        <v>7854</v>
+        <v>6360</v>
       </c>
       <c r="D303" s="8">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>307</v>
+        <v>762</v>
       </c>
       <c r="C304" s="3">
-        <v>6360</v>
+        <v>6156</v>
       </c>
       <c r="D304" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C305" s="3">
-        <v>6156</v>
+        <v>6462</v>
       </c>
       <c r="D305" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C306" s="3">
-        <v>6462</v>
+        <v>7847</v>
       </c>
       <c r="D306" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C307" s="3">
-        <v>7847</v>
+        <v>6257</v>
       </c>
       <c r="D307" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C308" s="3">
-        <v>6257</v>
+        <v>6156</v>
       </c>
       <c r="D308" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C309" s="3">
-        <v>6156</v>
+        <v>7867</v>
       </c>
       <c r="D309" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C310" s="3">
-        <v>7867</v>
+        <v>6462</v>
       </c>
       <c r="D310" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C311" s="3">
-        <v>6462</v>
+        <v>6735</v>
       </c>
       <c r="D311" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C312" s="3">
         <v>6735</v>
@@ -7262,24 +7268,24 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C313" s="3">
-        <v>6735</v>
+        <v>6258</v>
       </c>
       <c r="D313" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C314" s="3">
         <v>6258</v>
@@ -7290,24 +7296,24 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C315" s="3">
-        <v>6258</v>
+        <v>7867</v>
       </c>
       <c r="D315" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C316" s="3">
         <v>7867</v>
@@ -7318,38 +7324,38 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C317" s="3">
-        <v>7867</v>
+        <v>6461</v>
       </c>
       <c r="D317" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C318" s="3">
-        <v>6461</v>
+        <v>7844</v>
       </c>
       <c r="D318" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C319" s="3">
         <v>7844</v>
@@ -7360,24 +7366,24 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C320" s="3">
-        <v>7844</v>
+        <v>6461</v>
       </c>
       <c r="D320" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C321" s="3">
         <v>6461</v>
@@ -7388,24 +7394,24 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C322" s="3">
-        <v>6461</v>
+        <v>7842</v>
       </c>
       <c r="D322" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C323" s="3">
         <v>7842</v>
@@ -7416,24 +7422,24 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C324" s="3">
-        <v>7842</v>
+        <v>6745</v>
       </c>
       <c r="D324" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C325" s="3">
         <v>6745</v>
@@ -7444,69 +7450,69 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C326" s="3">
-        <v>6745</v>
+        <v>6258</v>
       </c>
       <c r="D326" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C327" s="3">
-        <v>6258</v>
+        <v>7867</v>
       </c>
       <c r="D327" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C328" s="3">
-        <v>7867</v>
+        <v>6259</v>
       </c>
       <c r="D328" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C329" s="3">
-        <v>6259</v>
+        <v>7842</v>
       </c>
       <c r="D329" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C330" s="3">
-        <v>7842</v>
+        <v>7843</v>
       </c>
       <c r="D330" s="8">
         <v>78</v>
@@ -7514,41 +7520,41 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C331" s="3">
-        <v>7843</v>
+        <v>6258</v>
       </c>
       <c r="D331" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C332" s="3">
-        <v>6258</v>
+        <v>7852</v>
       </c>
       <c r="D332" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C333" s="3">
-        <v>7852</v>
+        <v>7865</v>
       </c>
       <c r="D333" s="8">
         <v>78</v>
@@ -7556,13 +7562,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C334" s="3">
-        <v>7865</v>
+        <v>7831</v>
       </c>
       <c r="D334" s="8">
         <v>78</v>
@@ -7570,13 +7576,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C335" s="3">
-        <v>7831</v>
+        <v>7867</v>
       </c>
       <c r="D335" s="8">
         <v>78</v>
@@ -7584,10 +7590,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C336" s="3">
         <v>7867</v>
@@ -7598,13 +7604,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C337" s="3">
-        <v>7867</v>
+        <v>7843</v>
       </c>
       <c r="D337" s="8">
         <v>78</v>
@@ -7612,38 +7618,38 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C338" s="3">
-        <v>7843</v>
+        <v>6258</v>
       </c>
       <c r="D338" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C339" s="3">
-        <v>6258</v>
+        <v>7866</v>
       </c>
       <c r="D339" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C340" s="3">
         <v>7866</v>
@@ -7654,13 +7660,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C341" s="3">
-        <v>7866</v>
+        <v>7831</v>
       </c>
       <c r="D341" s="8">
         <v>78</v>
@@ -7668,13 +7674,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C342" s="3">
-        <v>7831</v>
+        <v>7867</v>
       </c>
       <c r="D342" s="8">
         <v>78</v>
@@ -7682,13 +7688,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C343" s="3">
-        <v>7867</v>
+        <v>7866</v>
       </c>
       <c r="D343" s="8">
         <v>78</v>
@@ -7696,13 +7702,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C344" s="3">
-        <v>7866</v>
+        <v>7831</v>
       </c>
       <c r="D344" s="8">
         <v>78</v>
@@ -7710,24 +7716,24 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>348</v>
+        <v>763</v>
       </c>
       <c r="C345" s="3">
-        <v>7831</v>
+        <v>6735</v>
       </c>
       <c r="D345" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>349</v>
+        <v>764</v>
       </c>
       <c r="C346" s="3">
         <v>6735</v>
@@ -7738,24 +7744,24 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C347" s="3">
-        <v>6735</v>
+        <v>7866</v>
       </c>
       <c r="D347" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C348" s="3">
         <v>7866</v>
@@ -7766,10 +7772,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C349" s="3">
         <v>7866</v>
@@ -7780,13 +7786,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C350" s="3">
-        <v>7866</v>
+        <v>7842</v>
       </c>
       <c r="D350" s="8">
         <v>78</v>
@@ -7794,69 +7800,69 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C351" s="3">
-        <v>7842</v>
+        <v>6745</v>
       </c>
       <c r="D351" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C352" s="3">
-        <v>6745</v>
+        <v>7843</v>
       </c>
       <c r="D352" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C353" s="3">
-        <v>7843</v>
+        <v>6156</v>
       </c>
       <c r="D353" s="8">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C354" s="3">
-        <v>6156</v>
+        <v>7865</v>
       </c>
       <c r="D354" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C355" s="3">
-        <v>7865</v>
+        <v>7849</v>
       </c>
       <c r="D355" s="8">
         <v>78</v>
@@ -7864,13 +7870,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C356" s="3">
-        <v>7849</v>
+        <v>7844</v>
       </c>
       <c r="D356" s="8">
         <v>78</v>
@@ -7878,13 +7884,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C357" s="3">
-        <v>7844</v>
+        <v>7854</v>
       </c>
       <c r="D357" s="8">
         <v>78</v>
@@ -7892,13 +7898,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C358" s="3">
-        <v>7854</v>
+        <v>7844</v>
       </c>
       <c r="D358" s="8">
         <v>78</v>
@@ -7906,10 +7912,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C359" s="3">
         <v>7844</v>
@@ -7920,13 +7926,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C360" s="3">
-        <v>7844</v>
+        <v>7843</v>
       </c>
       <c r="D360" s="8">
         <v>78</v>
@@ -7934,10 +7940,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C361" s="3">
         <v>7843</v>
@@ -7948,10 +7954,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C362" s="3">
         <v>7843</v>
@@ -7962,13 +7968,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C363" s="3">
-        <v>7843</v>
+        <v>7842</v>
       </c>
       <c r="D363" s="8">
         <v>78</v>
@@ -7976,13 +7982,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C364" s="3">
-        <v>7842</v>
+        <v>7844</v>
       </c>
       <c r="D364" s="8">
         <v>78</v>
@@ -7990,13 +7996,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C365" s="3">
-        <v>7844</v>
+        <v>7865</v>
       </c>
       <c r="D365" s="8">
         <v>78</v>
@@ -8004,10 +8010,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C366" s="3">
         <v>7865</v>
@@ -8018,13 +8024,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C367" s="3">
-        <v>7865</v>
+        <v>7855</v>
       </c>
       <c r="D367" s="8">
         <v>78</v>
@@ -8032,10 +8038,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C368" s="3">
         <v>7855</v>
@@ -8046,13 +8052,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C369" s="3">
-        <v>7855</v>
+        <v>7865</v>
       </c>
       <c r="D369" s="8">
         <v>78</v>
@@ -8060,10 +8066,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C370" s="3">
         <v>7865</v>
@@ -8074,13 +8080,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C371" s="3">
-        <v>7865</v>
+        <v>7843</v>
       </c>
       <c r="D371" s="8">
         <v>78</v>
@@ -8088,13 +8094,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>375</v>
+        <v>739</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="C372" s="3">
-        <v>7843</v>
+        <v>7849</v>
       </c>
       <c r="D372" s="8">
         <v>78</v>
@@ -8102,13 +8108,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C373" s="3">
-        <v>7849</v>
+        <v>7866</v>
       </c>
       <c r="D373" s="8">
         <v>78</v>
@@ -8116,13 +8122,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C374" s="3">
-        <v>7866</v>
+        <v>7854</v>
       </c>
       <c r="D374" s="8">
         <v>78</v>
@@ -8130,10 +8136,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>378</v>
+        <v>742</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C375" s="3">
         <v>7854</v>
@@ -8144,72 +8150,86 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C376" s="3">
-        <v>7854</v>
-      </c>
-      <c r="D376" s="8">
-        <v>78</v>
+        <v>746</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
+      </c>
+      <c r="C377" s="3">
+        <v>7865</v>
+      </c>
+      <c r="D377" s="8">
+        <v>78</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="D378" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
+      </c>
+      <c r="C378" s="3">
+        <v>7865</v>
+      </c>
+      <c r="D378" s="8">
+        <v>78</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>2</v>
+        <v>749</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>5</v>
+        <v>751</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>381</v>
+        <v>753</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="B380" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B381" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C381" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D380" s="8" t="s">
-        <v>381</v>
+      <c r="D381" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -8223,6 +8243,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -8388,15 +8417,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8408,13 +8428,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA6D558-96C2-460B-85A7-C80599A94855}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA6D558-96C2-460B-85A7-C80599A94855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8431,6 +8465,7 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>